--- a/downloads/asdasd.xlsx
+++ b/downloads/asdasd.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="27">
   <si>
     <t>რიგითი №</t>
   </si>
@@ -73,13 +73,36 @@
   <si>
     <t>გასვლები "B" პუნქტიდან</t>
   </si>
+  <si>
+    <t>MAN A-47</t>
+  </si>
+  <si>
+    <t>12:20:00</t>
+  </si>
+  <si>
+    <t>BMC Procity</t>
+  </si>
+  <si>
+    <t>Isuzu Novociti Life</t>
+  </si>
+  <si>
+    <t>MAN A-21</t>
+  </si>
+  <si>
+    <t>ბოგდან А092, A093</t>
+  </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="HH:mm:ss"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -87,8 +110,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +152,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEECE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEECE1"/>
       </patternFill>
     </fill>
   </fills>
@@ -146,47 +195,163 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment textRotation="90" wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment textRotation="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment textRotation="0" wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true">
-      <alignment textRotation="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment textRotation="0" wrapText="true" horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment textRotation="0" wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T114"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="3.515625" customWidth="true"/>
-    <col min="2" max="2" width="3.515625" customWidth="true"/>
-    <col min="3" max="3" width="3.515625" customWidth="true"/>
-    <col min="4" max="4" width="35.15625" customWidth="true"/>
-    <col min="5" max="5" width="5.078125" customWidth="true"/>
-    <col min="6" max="6" width="5.078125" customWidth="true"/>
-    <col min="7" max="7" width="5.078125" customWidth="true"/>
-    <col min="8" max="8" width="5.078125" customWidth="true"/>
-    <col min="9" max="9" width="5.078125" customWidth="true"/>
-    <col min="10" max="10" width="5.078125" customWidth="true"/>
-    <col min="11" max="11" width="5.078125" customWidth="true"/>
-    <col min="12" max="12" width="5.078125" customWidth="true"/>
-    <col min="13" max="13" width="5.078125" customWidth="true"/>
-    <col min="14" max="14" width="5.078125" customWidth="true"/>
-    <col min="20" max="20" width="5.078125" customWidth="true"/>
-    <col min="15" max="15" width="5.078125" customWidth="true"/>
-    <col min="17" max="17" width="5.078125" customWidth="true"/>
-    <col min="18" max="18" width="5.078125" customWidth="true"/>
+    <col min="1" max="1" width="4.6875" customWidth="true"/>
+    <col min="2" max="2" width="4.6875" customWidth="true"/>
+    <col min="3" max="3" width="7.421875" customWidth="true"/>
+    <col min="4" max="4" width="27.34375" customWidth="true"/>
+    <col min="5" max="5" width="13.671875" customWidth="true"/>
+    <col min="6" max="6" width="17.578125" customWidth="true"/>
+    <col min="7" max="7" width="8.203125" customWidth="true"/>
+    <col min="8" max="8" width="8.203125" customWidth="true"/>
+    <col min="9" max="9" width="8.203125" customWidth="true"/>
+    <col min="10" max="10" width="8.203125" customWidth="true"/>
+    <col min="11" max="11" width="8.203125" customWidth="true"/>
+    <col min="12" max="12" width="8.203125" customWidth="true"/>
+    <col min="13" max="13" width="8.203125" customWidth="true"/>
+    <col min="14" max="14" width="27.34375" customWidth="true"/>
+    <col min="15" max="15" width="8.203125" customWidth="true"/>
+    <col min="16" max="16" width="8.203125" customWidth="true"/>
+    <col min="17" max="17" width="27.34375" customWidth="true"/>
+    <col min="18" max="18" width="8.203125" customWidth="true"/>
+    <col min="19" max="19" width="8.203125" customWidth="true"/>
+    <col min="20" max="20" width="19.53125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.0" customHeight="true">
@@ -266,6 +431,19 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" ht="80.0" customHeight="true">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
       <c r="N3" t="s" s="2">
         <v>16</v>
       </c>
@@ -282,8 +460,2228 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O4" t="s" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="n" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="O5" t="s" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O6" t="s" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O7" t="s" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O8" t="s" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O9" t="s" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O10" t="s" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O11" t="s" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O12" t="s" s="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O13" t="s" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O14" t="s" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="n" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="O15" t="s" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O16" t="s" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O17" t="s" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O18" t="s" s="19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O19" t="s" s="20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O20" t="s" s="21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="n" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="O21" t="s" s="22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O22" t="s" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O23" t="s" s="24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O24" t="s" s="25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O25" t="s" s="26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O26" t="s" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O27" t="s" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O28" t="s" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O29" t="s" s="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O30" t="s" s="31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O31" t="s" s="32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O32" t="s" s="33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O33" t="s" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O34" t="s" s="35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O35" t="s" s="36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O36" t="s" s="37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O37" t="s" s="38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O38" t="s" s="39">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O39" t="s" s="40">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O40" t="s" s="41">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O41" t="s" s="42">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O42" t="s" s="43">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O43" t="s" s="44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O44" t="s" s="45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>45.099998474121094</v>
+      </c>
+      <c r="F45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O45" t="s" s="46">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>45.20000076293945</v>
+      </c>
+      <c r="F46" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O46" t="s" s="47">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O47" t="s" s="48">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O48" t="s" s="49">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O49" t="s" s="50">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O50" t="s" s="51">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" t="n" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="O51" t="s" s="52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O52" t="s" s="53">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O53" t="s" s="54">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O54" t="s" s="55">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O55" t="s" s="56">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O56" t="s" s="57">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O57" t="s" s="58">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O58" t="s" s="59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O59" t="s" s="60">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O60" t="s" s="61">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O61" t="s" s="62">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O62" t="s" s="63">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O63" t="s" s="64">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O64" t="s" s="65">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O65" t="s" s="66">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O66" t="s" s="67">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" t="n" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="O67" t="s" s="68">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O68" t="s" s="69">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O69" t="s" s="70">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O70" t="s" s="71">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O71" t="s" s="72">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O72" t="s" s="73">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O73" t="s" s="74">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O74" t="s" s="75">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O75" t="s" s="76">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O76" t="s" s="77">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>23</v>
+      </c>
+      <c r="G77" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O77" t="s" s="78">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>22</v>
+      </c>
+      <c r="G78" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O78" t="s" s="79">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O79" t="s" s="80">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O80" t="s" s="81">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O81" t="s" s="82">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O82" t="s" s="83">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>25</v>
+      </c>
+      <c r="G83" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O83" t="s" s="84">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O84" t="s" s="85">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>24</v>
+      </c>
+      <c r="G85" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O85" t="s" s="86">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86" t="n" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="O86" t="s" s="87">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>23</v>
+      </c>
+      <c r="G87" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O87" t="s" s="88">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O88" t="s" s="89">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O89" t="s" s="90">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O90" t="s" s="91">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O91" t="s" s="92">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O92" t="s" s="93">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O93" t="s" s="94">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O94" t="s" s="95">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" t="n" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="O95" t="s" s="96">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O96" t="s" s="97">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>23</v>
+      </c>
+      <c r="G97" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O97" t="s" s="98">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>23</v>
+      </c>
+      <c r="G98" t="n" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="O98" t="s" s="99">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" t="n" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="O99" t="s" s="100">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O100" t="s" s="101">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O101" t="s" s="102">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>301.0</v>
+      </c>
+      <c r="F102" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" t="n" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="O102" t="s" s="103">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="F103" t="s">
+        <v>22</v>
+      </c>
+      <c r="G103" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O103" t="s" s="104">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>332.0</v>
+      </c>
+      <c r="F104" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O104" t="s" s="105">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>334.0</v>
+      </c>
+      <c r="F105" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O105" t="s" s="106">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="F106" t="s">
+        <v>22</v>
+      </c>
+      <c r="G106" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O106" t="s" s="107">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="F107" t="s">
+        <v>22</v>
+      </c>
+      <c r="G107" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O107" t="s" s="108">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>22</v>
+      </c>
+      <c r="G108" t="n" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="O108" t="s" s="109">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" t="n" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="O109" t="s" s="110">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>346.0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" t="n" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O110" t="s" s="111">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>363.0</v>
+      </c>
+      <c r="F111" t="s">
+        <v>23</v>
+      </c>
+      <c r="G111" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O111" t="s" s="112">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>383.0</v>
+      </c>
+      <c r="F112" t="s">
+        <v>23</v>
+      </c>
+      <c r="G112" t="n" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O112" t="s" s="113">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>385.0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>22</v>
+      </c>
+      <c r="G113" t="n" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="O113" t="s" s="114">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>387.0</v>
+      </c>
+      <c r="F114" t="s">
+        <v>22</v>
+      </c>
+      <c r="G114" t="n" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="O114" t="s" s="115">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -299,6 +2697,8 @@
     <mergeCell ref="N1:S2"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:S3"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/downloads/asdasd.xlsx
+++ b/downloads/asdasd.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="26">
   <si>
     <t>რიგითი №</t>
   </si>
@@ -77,9 +77,6 @@
     <t>MAN A-47</t>
   </si>
   <si>
-    <t>12:20:00</t>
-  </si>
-  <si>
     <t>BMC Procity</t>
   </si>
   <si>
@@ -99,10 +96,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="HH:mm:ss"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[hh]:mm"/>
+    <numFmt numFmtId="165" formatCode="[mm]:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -121,6 +119,11 @@
     <font>
       <name val="Sylfaen"/>
       <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Sylfaen"/>
@@ -195,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment textRotation="90" wrapText="true" horizontal="center" vertical="center"/>
@@ -206,120 +209,14 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment textRotation="0" wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment textRotation="0" wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment textRotation="0" wrapText="true" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -364,7 +261,7 @@
       <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
@@ -394,7 +291,7 @@
       <c r="M1" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" t="s" s="4">
         <v>13</v>
       </c>
       <c r="O1"/>
@@ -402,7 +299,7 @@
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
-      <c r="T1" t="s" s="2">
+      <c r="T1" t="s" s="4">
         <v>14</v>
       </c>
     </row>
@@ -444,17 +341,17 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" t="s" s="2">
+      <c r="N3" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="O3" t="s" s="2">
+      <c r="O3" t="s" s="4">
         <v>17</v>
       </c>
       <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
+      <c r="Q3" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="R3" t="s" s="2">
+      <c r="R3" t="s" s="4">
         <v>19</v>
       </c>
       <c r="S3" s="2"/>
@@ -473,11 +370,23 @@
       <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="n" s="4">
+      <c r="G4" t="n" s="5">
         <v>8.0</v>
       </c>
-      <c r="O4" t="s" s="5">
-        <v>21</v>
+      <c r="H4" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O4" t="n" s="6">
+        <v>0.925</v>
+      </c>
+      <c r="P4" t="n" s="6">
+        <v>0.9423611111111111</v>
+      </c>
+      <c r="R4" t="n" s="6">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="S4" t="n" s="6">
+        <v>0.9409722222222222</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +400,25 @@
         <v>2.0</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G5" t="n" s="5">
         <v>11.0</v>
       </c>
-      <c r="O5" t="s" s="6">
-        <v>21</v>
+      <c r="H5" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O5" t="n" s="6">
+        <v>0.9340277777777778</v>
+      </c>
+      <c r="P5" t="n" s="6">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="R5" t="n" s="6">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S5" t="n" s="6">
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +432,25 @@
         <v>3.0</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G6" t="n" s="5">
         <v>6.0</v>
       </c>
-      <c r="O6" t="s" s="7">
-        <v>21</v>
+      <c r="H6" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O6" t="n" s="6">
+        <v>0.9180555555555555</v>
+      </c>
+      <c r="P6" t="n" s="6">
+        <v>0.9402777777777778</v>
+      </c>
+      <c r="R6" t="n" s="6">
+        <v>0.9180555555555555</v>
+      </c>
+      <c r="S6" t="n" s="6">
+        <v>0.9402777777777778</v>
       </c>
     </row>
     <row r="7">
@@ -531,13 +464,25 @@
         <v>4.0</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O7" t="s" s="8">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G7" t="n" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H7" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O7" t="n" s="6">
+        <v>0.9145833333333333</v>
+      </c>
+      <c r="P7" t="n" s="6">
+        <v>0.9423611111111111</v>
+      </c>
+      <c r="R7" t="n" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="S7" t="n" s="6">
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="8">
@@ -551,13 +496,25 @@
         <v>5.0</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O8" t="s" s="9">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G8" t="n" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H8" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O8" t="n" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="P8" t="n" s="6">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="R8" t="n" s="6">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="S8" t="n" s="6">
+        <v>0.875</v>
       </c>
     </row>
     <row r="9">
@@ -571,13 +528,25 @@
         <v>6.0</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G9" t="n" s="5">
         <v>7.0</v>
       </c>
-      <c r="O9" t="s" s="10">
-        <v>21</v>
+      <c r="H9" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O9" t="n" s="6">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P9" t="n" s="6">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R9" t="n" s="6">
+        <v>0.9215277777777777</v>
+      </c>
+      <c r="S9" t="n" s="6">
+        <v>0.9493055555555555</v>
       </c>
     </row>
     <row r="10">
@@ -591,13 +560,25 @@
         <v>7.0</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O10" t="s" s="11">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G10" t="n" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H10" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O10" t="n" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="P10" t="n" s="6">
+        <v>0.9513888888888888</v>
+      </c>
+      <c r="R10" t="n" s="6">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="S10" t="n" s="6">
+        <v>0.9340277777777778</v>
       </c>
     </row>
     <row r="11">
@@ -611,13 +592,25 @@
         <v>9.0</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G11" t="n" s="5">
         <v>5.0</v>
       </c>
-      <c r="O11" t="s" s="12">
-        <v>21</v>
+      <c r="H11" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O11" t="n" s="6">
+        <v>0.9215277777777777</v>
+      </c>
+      <c r="P11" t="n" s="6">
+        <v>0.9423611111111111</v>
+      </c>
+      <c r="R11" t="n" s="6">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="S11" t="n" s="6">
+        <v>0.9479166666666666</v>
       </c>
     </row>
     <row r="12">
@@ -631,13 +624,25 @@
         <v>10.0</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G12" t="n" s="5">
         <v>4.0</v>
       </c>
-      <c r="O12" t="s" s="13">
-        <v>21</v>
+      <c r="H12" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O12" t="n" s="6">
+        <v>0.9097222222222222</v>
+      </c>
+      <c r="P12" t="n" s="6">
+        <v>0.9368055555555556</v>
+      </c>
+      <c r="R12" t="n" s="6">
+        <v>0.8840277777777777</v>
+      </c>
+      <c r="S12" t="n" s="6">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="13">
@@ -651,13 +656,25 @@
         <v>11.0</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G13" t="n" s="5">
         <v>7.0</v>
       </c>
-      <c r="O13" t="s" s="14">
-        <v>21</v>
+      <c r="H13" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O13" t="n" s="6">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="P13" t="n" s="6">
+        <v>0.9486111111111111</v>
+      </c>
+      <c r="R13" t="n" s="6">
+        <v>0.9173611111111111</v>
+      </c>
+      <c r="S13" t="n" s="6">
+        <v>0.9423611111111111</v>
       </c>
     </row>
     <row r="14">
@@ -671,13 +688,25 @@
         <v>12.0</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G14" t="n" s="5">
         <v>4.0</v>
       </c>
-      <c r="O14" t="s" s="15">
-        <v>21</v>
+      <c r="H14" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O14" t="n" s="6">
+        <v>0.8986111111111111</v>
+      </c>
+      <c r="P14" t="n" s="6">
+        <v>0.9173611111111111</v>
+      </c>
+      <c r="R14" t="n" s="6">
+        <v>0.9347222222222222</v>
+      </c>
+      <c r="S14" t="n" s="6">
+        <v>0.9534722222222223</v>
       </c>
     </row>
     <row r="15">
@@ -691,13 +720,25 @@
         <v>14.0</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G15" t="n" s="5">
         <v>11.0</v>
       </c>
-      <c r="O15" t="s" s="16">
-        <v>21</v>
+      <c r="H15" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O15" t="n" s="6">
+        <v>0.9055555555555556</v>
+      </c>
+      <c r="P15" t="n" s="6">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R15" t="n" s="6">
+        <v>0.9368055555555556</v>
+      </c>
+      <c r="S15" t="n" s="6">
+        <v>0.9458333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -711,13 +752,25 @@
         <v>15.0</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G16" t="n" s="5">
         <v>6.0</v>
       </c>
-      <c r="O16" t="s" s="17">
-        <v>21</v>
+      <c r="H16" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O16" t="n" s="6">
+        <v>0.9097222222222222</v>
+      </c>
+      <c r="P16" t="n" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="R16" t="n" s="6">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="S16" t="n" s="6">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="17">
@@ -731,13 +784,25 @@
         <v>16.0</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O17" t="s" s="18">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G17" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H17" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O17" t="n" s="6">
+        <v>0.8125</v>
+      </c>
+      <c r="P17" t="n" s="6">
+        <v>0.8854166666666666</v>
+      </c>
+      <c r="R17" t="n" s="6">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="S17" t="n" s="6">
+        <v>0.8541666666666666</v>
       </c>
     </row>
     <row r="18">
@@ -751,13 +816,25 @@
         <v>17.0</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G18" t="n" s="5">
         <v>7.0</v>
       </c>
-      <c r="O18" t="s" s="19">
-        <v>21</v>
+      <c r="H18" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O18" t="n" s="6">
+        <v>0.90625</v>
+      </c>
+      <c r="P18" t="n" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="R18" t="n" s="6">
+        <v>0.9201388888888888</v>
+      </c>
+      <c r="S18" t="n" s="6">
+        <v>0.9409722222222222</v>
       </c>
     </row>
     <row r="19">
@@ -771,13 +848,25 @@
         <v>18.0</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O19" t="s" s="20">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G19" t="n" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H19" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O19" t="n" s="6">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="P19" t="n" s="6">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="R19" t="n" s="6">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="S19" t="n" s="6">
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="20">
@@ -793,11 +882,23 @@
       <c r="F20" t="s">
         <v>20</v>
       </c>
-      <c r="G20" t="n" s="4">
+      <c r="G20" t="n" s="5">
         <v>10.0</v>
       </c>
-      <c r="O20" t="s" s="21">
-        <v>21</v>
+      <c r="H20" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O20" t="n" s="6">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="P20" t="n" s="6">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="R20" t="n" s="6">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="S20" t="n" s="6">
+        <v>0.9486111111111111</v>
       </c>
     </row>
     <row r="21">
@@ -811,13 +912,25 @@
         <v>21.0</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G21" t="n" s="5">
         <v>11.0</v>
       </c>
-      <c r="O21" t="s" s="22">
-        <v>21</v>
+      <c r="H21" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O21" t="n" s="6">
+        <v>0.89375</v>
+      </c>
+      <c r="P21" t="n" s="6">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="R21" t="n" s="6">
+        <v>0.9347222222222222</v>
+      </c>
+      <c r="S21" t="n" s="6">
+        <v>0.9465277777777777</v>
       </c>
     </row>
     <row r="22">
@@ -831,13 +944,25 @@
         <v>22.0</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O22" t="s" s="23">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G22" t="n" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H22" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O22" t="n" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="P22" t="n" s="6">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="R22" t="n" s="6">
+        <v>0.9159722222222222</v>
+      </c>
+      <c r="S22" t="n" s="6">
+        <v>0.94375</v>
       </c>
     </row>
     <row r="23">
@@ -851,13 +976,25 @@
         <v>23.0</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G23" t="n" s="5">
         <v>9.0</v>
       </c>
-      <c r="O23" t="s" s="24">
-        <v>21</v>
+      <c r="H23" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O23" t="n" s="6">
+        <v>0.9152777777777777</v>
+      </c>
+      <c r="P23" t="n" s="6">
+        <v>0.9458333333333333</v>
+      </c>
+      <c r="R23" t="n" s="6">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S23" t="n" s="6">
+        <v>0.9402777777777778</v>
       </c>
     </row>
     <row r="24">
@@ -871,13 +1008,25 @@
         <v>24.0</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G24" t="n" s="5">
         <v>10.0</v>
       </c>
-      <c r="O24" t="s" s="25">
-        <v>21</v>
+      <c r="H24" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O24" t="n" s="6">
+        <v>0.9097222222222222</v>
+      </c>
+      <c r="P24" t="n" s="6">
+        <v>0.9430555555555555</v>
+      </c>
+      <c r="R24" t="n" s="6">
+        <v>0.9319444444444445</v>
+      </c>
+      <c r="S24" t="n" s="6">
+        <v>0.9430555555555555</v>
       </c>
     </row>
     <row r="25">
@@ -893,11 +1042,23 @@
       <c r="F25" t="s">
         <v>20</v>
       </c>
-      <c r="G25" t="n" s="4">
+      <c r="G25" t="n" s="5">
         <v>8.0</v>
       </c>
-      <c r="O25" t="s" s="26">
-        <v>21</v>
+      <c r="H25" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O25" t="n" s="6">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="P25" t="n" s="6">
+        <v>0.9423611111111111</v>
+      </c>
+      <c r="R25" t="n" s="6">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="S25" t="n" s="6">
+        <v>0.9423611111111111</v>
       </c>
     </row>
     <row r="26">
@@ -911,13 +1072,25 @@
         <v>26.0</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O26" t="s" s="27">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G26" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H26" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O26" t="n" s="6">
+        <v>0.8402777777777778</v>
+      </c>
+      <c r="P26" t="n" s="6">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="R26" t="n" s="6">
+        <v>0.8159722222222222</v>
+      </c>
+      <c r="S26" t="n" s="6">
+        <v>0.8645833333333334</v>
       </c>
     </row>
     <row r="27">
@@ -931,13 +1104,25 @@
         <v>27.0</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G27" t="n" s="5">
         <v>6.0</v>
       </c>
-      <c r="O27" t="s" s="28">
-        <v>21</v>
+      <c r="H27" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O27" t="n" s="6">
+        <v>0.9256944444444445</v>
+      </c>
+      <c r="P27" t="n" s="6">
+        <v>0.9458333333333333</v>
+      </c>
+      <c r="R27" t="n" s="6">
+        <v>0.9347222222222222</v>
+      </c>
+      <c r="S27" t="n" s="6">
+        <v>0.9451388888888889</v>
       </c>
     </row>
     <row r="28">
@@ -951,13 +1136,25 @@
         <v>28.0</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G28" t="n" s="5">
         <v>4.0</v>
       </c>
-      <c r="O28" t="s" s="29">
-        <v>21</v>
+      <c r="H28" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O28" t="n" s="6">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="P28" t="n" s="6">
+        <v>0.9479166666666666</v>
+      </c>
+      <c r="R28" t="n" s="6">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="S28" t="n" s="6">
+        <v>0.9479166666666666</v>
       </c>
     </row>
     <row r="29">
@@ -971,13 +1168,25 @@
         <v>29.0</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O29" t="s" s="30">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G29" t="n" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H29" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O29" t="n" s="6">
+        <v>0.8986111111111111</v>
+      </c>
+      <c r="P29" t="n" s="6">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R29" t="n" s="6">
+        <v>0.9104166666666667</v>
+      </c>
+      <c r="S29" t="n" s="6">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="30">
@@ -991,13 +1200,25 @@
         <v>30.0</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O30" t="s" s="31">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G30" t="n" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H30" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O30" t="n" s="6">
+        <v>0.90625</v>
+      </c>
+      <c r="P30" t="n" s="6">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R30" t="n" s="6">
+        <v>0.9131944444444444</v>
+      </c>
+      <c r="S30" t="n" s="6">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="31">
@@ -1011,13 +1232,25 @@
         <v>31.0</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G31" t="n" s="5">
         <v>5.0</v>
       </c>
-      <c r="O31" t="s" s="32">
-        <v>21</v>
+      <c r="H31" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O31" t="n" s="6">
+        <v>0.9138888888888889</v>
+      </c>
+      <c r="P31" t="n" s="6">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R31" t="n" s="6">
+        <v>0.91875</v>
+      </c>
+      <c r="S31" t="n" s="6">
+        <v>0.9465277777777777</v>
       </c>
     </row>
     <row r="32">
@@ -1031,13 +1264,25 @@
         <v>32.0</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G32" t="n" s="5">
         <v>4.0</v>
       </c>
-      <c r="O32" t="s" s="33">
-        <v>21</v>
+      <c r="H32" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O32" t="n" s="6">
+        <v>0.9215277777777777</v>
+      </c>
+      <c r="P32" t="n" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="R32" t="n" s="6">
+        <v>0.90625</v>
+      </c>
+      <c r="S32" t="n" s="6">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="33">
@@ -1051,13 +1296,25 @@
         <v>33.0</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G33" t="n" s="5">
         <v>9.0</v>
       </c>
-      <c r="O33" t="s" s="34">
-        <v>21</v>
+      <c r="H33" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O33" t="n" s="6">
+        <v>0.8951388888888889</v>
+      </c>
+      <c r="P33" t="n" s="6">
+        <v>0.9395833333333333</v>
+      </c>
+      <c r="R33" t="n" s="6">
+        <v>0.9340277777777778</v>
+      </c>
+      <c r="S33" t="n" s="6">
+        <v>0.9451388888888889</v>
       </c>
     </row>
     <row r="34">
@@ -1071,13 +1328,25 @@
         <v>34.0</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G34" t="n" s="5">
         <v>9.0</v>
       </c>
-      <c r="O34" t="s" s="35">
-        <v>21</v>
+      <c r="H34" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O34" t="n" s="6">
+        <v>0.9215277777777777</v>
+      </c>
+      <c r="P34" t="n" s="6">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R34" t="n" s="6">
+        <v>0.9263888888888889</v>
+      </c>
+      <c r="S34" t="n" s="6">
+        <v>0.9465277777777777</v>
       </c>
     </row>
     <row r="35">
@@ -1091,13 +1360,25 @@
         <v>35.0</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O35" t="s" s="36">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G35" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H35" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O35" t="n" s="6">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="P35" t="n" s="6">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="R35" t="n" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="S35" t="n" s="6">
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="36">
@@ -1111,13 +1392,25 @@
         <v>36.0</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G36" t="n" s="5">
         <v>6.0</v>
       </c>
-      <c r="O36" t="s" s="37">
-        <v>21</v>
+      <c r="H36" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O36" t="n" s="6">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P36" t="n" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="R36" t="n" s="6">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="S36" t="n" s="6">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="37">
@@ -1131,13 +1424,25 @@
         <v>37.0</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G37" t="n" s="5">
         <v>10.0</v>
       </c>
-      <c r="O37" t="s" s="38">
-        <v>21</v>
+      <c r="H37" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O37" t="n" s="6">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P37" t="n" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="R37" t="n" s="6">
+        <v>0.9368055555555556</v>
+      </c>
+      <c r="S37" t="n" s="6">
+        <v>0.9472222222222222</v>
       </c>
     </row>
     <row r="38">
@@ -1151,13 +1456,25 @@
         <v>38.0</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G38" t="n" s="5">
         <v>6.0</v>
       </c>
-      <c r="O38" t="s" s="39">
-        <v>21</v>
+      <c r="H38" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O38" t="n" s="6">
+        <v>0.925</v>
+      </c>
+      <c r="P38" t="n" s="6">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R38" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="S38" t="s" s="6">
+        <v>25</v>
       </c>
     </row>
     <row r="39">
@@ -1173,11 +1490,23 @@
       <c r="F39" t="s">
         <v>20</v>
       </c>
-      <c r="G39" t="n" s="4">
+      <c r="G39" t="n" s="5">
         <v>10.0</v>
       </c>
-      <c r="O39" t="s" s="40">
-        <v>21</v>
+      <c r="H39" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O39" t="n" s="6">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P39" t="n" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="R39" t="n" s="6">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="S39" t="n" s="6">
+        <v>0.9381944444444444</v>
       </c>
     </row>
     <row r="40">
@@ -1191,13 +1520,25 @@
         <v>40.0</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O40" t="s" s="41">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G40" t="n" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H40" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O40" t="n" s="6">
+        <v>0.9097222222222222</v>
+      </c>
+      <c r="P40" t="n" s="6">
+        <v>0.9430555555555555</v>
+      </c>
+      <c r="R40" t="n" s="6">
+        <v>0.9180555555555555</v>
+      </c>
+      <c r="S40" t="n" s="6">
+        <v>0.9340277777777778</v>
       </c>
     </row>
     <row r="41">
@@ -1211,13 +1552,25 @@
         <v>41.0</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O41" t="s" s="42">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G41" t="n" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H41" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O41" t="n" s="6">
+        <v>0.9097222222222222</v>
+      </c>
+      <c r="P41" t="n" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="R41" t="n" s="6">
+        <v>0.9222222222222223</v>
+      </c>
+      <c r="S41" t="n" s="6">
+        <v>0.95</v>
       </c>
     </row>
     <row r="42">
@@ -1231,13 +1584,25 @@
         <v>42.0</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G42" t="n" s="5">
         <v>4.0</v>
       </c>
-      <c r="O42" t="s" s="43">
-        <v>21</v>
+      <c r="H42" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O42" t="n" s="6">
+        <v>0.9208333333333333</v>
+      </c>
+      <c r="P42" t="n" s="6">
+        <v>0.9465277777777777</v>
+      </c>
+      <c r="R42" t="n" s="6">
+        <v>0.9340277777777778</v>
+      </c>
+      <c r="S42" t="n" s="6">
+        <v>0.9472222222222222</v>
       </c>
     </row>
     <row r="43">
@@ -1253,11 +1618,23 @@
       <c r="F43" t="s">
         <v>20</v>
       </c>
-      <c r="G43" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O43" t="s" s="44">
-        <v>21</v>
+      <c r="G43" t="n" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H43" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O43" t="n" s="6">
+        <v>0.8854166666666666</v>
+      </c>
+      <c r="P43" t="n" s="6">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="R43" t="n" s="6">
+        <v>0.90625</v>
+      </c>
+      <c r="S43" t="n" s="6">
+        <v>0.9479166666666666</v>
       </c>
     </row>
     <row r="44">
@@ -1271,13 +1648,25 @@
         <v>45.0</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O44" t="s" s="45">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G44" t="n" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H44" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O44" t="n" s="6">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P44" t="n" s="6">
+        <v>0.9319444444444445</v>
+      </c>
+      <c r="R44" t="n" s="6">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="S44" t="n" s="6">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="45">
@@ -1291,13 +1680,25 @@
         <v>45.099998474121094</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O45" t="s" s="46">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G45" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H45" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O45" t="n" s="6">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="P45" t="n" s="6">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R45" t="n" s="6">
+        <v>0.8819444444444444</v>
+      </c>
+      <c r="S45" t="n" s="6">
+        <v>0.9236111111111112</v>
       </c>
     </row>
     <row r="46">
@@ -1311,13 +1712,25 @@
         <v>45.20000076293945</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O46" t="s" s="47">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G46" t="n" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H46" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O46" t="n" s="6">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="P46" t="n" s="6">
+        <v>0.9513888888888888</v>
+      </c>
+      <c r="R46" t="n" s="6">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S46" t="n" s="6">
+        <v>0.9513888888888888</v>
       </c>
     </row>
     <row r="47">
@@ -1331,13 +1744,25 @@
         <v>46.0</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G47" t="n" s="5">
         <v>8.0</v>
       </c>
-      <c r="O47" t="s" s="48">
-        <v>21</v>
+      <c r="H47" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O47" t="n" s="6">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="P47" t="n" s="6">
+        <v>0.9472222222222222</v>
+      </c>
+      <c r="R47" t="n" s="6">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="S47" t="n" s="6">
+        <v>0.9465277777777777</v>
       </c>
     </row>
     <row r="48">
@@ -1351,13 +1776,25 @@
         <v>47.0</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G48" t="n" s="5">
         <v>4.0</v>
       </c>
-      <c r="O48" t="s" s="49">
-        <v>21</v>
+      <c r="H48" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O48" t="n" s="6">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="P48" t="n" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="R48" t="n" s="6">
+        <v>0.9201388888888888</v>
+      </c>
+      <c r="S48" t="n" s="6">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="49">
@@ -1371,13 +1808,25 @@
         <v>49.0</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G49" t="n" s="5">
         <v>6.0</v>
       </c>
-      <c r="O49" t="s" s="50">
-        <v>21</v>
+      <c r="H49" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O49" t="n" s="6">
+        <v>0.9263888888888889</v>
+      </c>
+      <c r="P49" t="n" s="6">
+        <v>0.9479166666666666</v>
+      </c>
+      <c r="R49" t="n" s="6">
+        <v>0.9201388888888888</v>
+      </c>
+      <c r="S49" t="n" s="6">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="50">
@@ -1393,11 +1842,23 @@
       <c r="F50" t="s">
         <v>20</v>
       </c>
-      <c r="G50" t="n" s="4">
+      <c r="G50" t="n" s="5">
         <v>8.0</v>
       </c>
-      <c r="O50" t="s" s="51">
-        <v>21</v>
+      <c r="H50" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O50" t="n" s="6">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="P50" t="n" s="6">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R50" t="n" s="6">
+        <v>0.9229166666666667</v>
+      </c>
+      <c r="S50" t="n" s="6">
+        <v>0.94375</v>
       </c>
     </row>
     <row r="51">
@@ -1411,13 +1872,25 @@
         <v>51.0</v>
       </c>
       <c r="F51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G51" t="n" s="5">
         <v>13.0</v>
       </c>
-      <c r="O51" t="s" s="52">
-        <v>21</v>
+      <c r="H51" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O51" t="n" s="6">
+        <v>0.8854166666666666</v>
+      </c>
+      <c r="P51" t="n" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="R51" t="n" s="6">
+        <v>0.9326388888888889</v>
+      </c>
+      <c r="S51" t="n" s="6">
+        <v>0.9430555555555555</v>
       </c>
     </row>
     <row r="52">
@@ -1431,13 +1904,25 @@
         <v>52.0</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O52" t="s" s="53">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G52" t="n" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H52" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O52" t="n" s="6">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="P52" t="n" s="6">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="R52" t="n" s="6">
+        <v>0.9208333333333333</v>
+      </c>
+      <c r="S52" t="n" s="6">
+        <v>0.9486111111111111</v>
       </c>
     </row>
     <row r="53">
@@ -1451,13 +1936,25 @@
         <v>53.0</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O53" t="s" s="54">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G53" t="n" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H53" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O53" t="n" s="6">
+        <v>0.9194444444444444</v>
+      </c>
+      <c r="P53" t="n" s="6">
+        <v>0.9513888888888888</v>
+      </c>
+      <c r="R53" t="n" s="6">
+        <v>0.9277777777777778</v>
+      </c>
+      <c r="S53" t="n" s="6">
+        <v>0.94375</v>
       </c>
     </row>
     <row r="54">
@@ -1471,13 +1968,25 @@
         <v>54.0</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G54" t="n" s="5">
         <v>6.0</v>
       </c>
-      <c r="O54" t="s" s="55">
-        <v>21</v>
+      <c r="H54" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O54" t="n" s="6">
+        <v>0.9020833333333333</v>
+      </c>
+      <c r="P54" t="n" s="6">
+        <v>0.9340277777777778</v>
+      </c>
+      <c r="R54" t="n" s="6">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="S54" t="n" s="6">
+        <v>0.9493055555555555</v>
       </c>
     </row>
     <row r="55">
@@ -1493,11 +2002,23 @@
       <c r="F55" t="s">
         <v>20</v>
       </c>
-      <c r="G55" t="n" s="4">
+      <c r="G55" t="n" s="5">
         <v>5.0</v>
       </c>
-      <c r="O55" t="s" s="56">
-        <v>21</v>
+      <c r="H55" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O55" t="n" s="6">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="P55" t="n" s="6">
+        <v>0.9430555555555555</v>
+      </c>
+      <c r="R55" t="n" s="6">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="S55" t="n" s="6">
+        <v>0.9493055555555555</v>
       </c>
     </row>
     <row r="56">
@@ -1511,13 +2032,25 @@
         <v>57.0</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O56" t="s" s="57">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G56" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H56" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O56" t="n" s="6">
+        <v>0.9131944444444444</v>
+      </c>
+      <c r="P56" t="n" s="6">
+        <v>0.9548611111111112</v>
+      </c>
+      <c r="R56" t="n" s="6">
+        <v>0.8923611111111112</v>
+      </c>
+      <c r="S56" t="n" s="6">
+        <v>0.9340277777777778</v>
       </c>
     </row>
     <row r="57">
@@ -1531,13 +2064,25 @@
         <v>58.0</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" t="n" s="4">
+        <v>24</v>
+      </c>
+      <c r="G57" t="n" s="5">
         <v>4.0</v>
       </c>
-      <c r="O57" t="s" s="58">
-        <v>21</v>
+      <c r="H57" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O57" t="n" s="6">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="P57" t="n" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="R57" t="n" s="6">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="S57" t="n" s="6">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="58">
@@ -1551,13 +2096,25 @@
         <v>59.0</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G58" t="n" s="5">
         <v>7.0</v>
       </c>
-      <c r="O58" t="s" s="59">
-        <v>21</v>
+      <c r="H58" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O58" t="n" s="6">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="P58" t="n" s="6">
+        <v>0.94375</v>
+      </c>
+      <c r="R58" t="n" s="6">
+        <v>0.9201388888888888</v>
+      </c>
+      <c r="S58" t="n" s="6">
+        <v>0.9395833333333333</v>
       </c>
     </row>
     <row r="59">
@@ -1571,13 +2128,25 @@
         <v>60.0</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G59" t="n" s="5">
         <v>6.0</v>
       </c>
-      <c r="O59" t="s" s="60">
-        <v>21</v>
+      <c r="H59" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O59" t="n" s="6">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="P59" t="n" s="6">
+        <v>0.9458333333333333</v>
+      </c>
+      <c r="R59" t="n" s="6">
+        <v>0.9208333333333333</v>
+      </c>
+      <c r="S59" t="n" s="6">
+        <v>0.9458333333333333</v>
       </c>
     </row>
     <row r="60">
@@ -1591,13 +2160,25 @@
         <v>62.0</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G60" t="n" s="5">
         <v>7.0</v>
       </c>
-      <c r="O60" t="s" s="61">
-        <v>21</v>
+      <c r="H60" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O60" t="n" s="6">
+        <v>0.9055555555555556</v>
+      </c>
+      <c r="P60" t="n" s="6">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="R60" t="n" s="6">
+        <v>0.9347222222222222</v>
+      </c>
+      <c r="S60" t="n" s="6">
+        <v>0.9465277777777777</v>
       </c>
     </row>
     <row r="61">
@@ -1611,13 +2192,25 @@
         <v>64.0</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O61" t="s" s="62">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G61" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H61" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O61" t="n" s="6">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="P61" t="n" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="R61" t="n" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="S61" t="n" s="6">
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="62">
@@ -1631,13 +2224,25 @@
         <v>65.0</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O62" t="s" s="63">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G62" t="n" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H62" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O62" t="n" s="6">
+        <v>0.9125</v>
+      </c>
+      <c r="P62" t="n" s="6">
+        <v>0.9291666666666667</v>
+      </c>
+      <c r="R62" t="n" s="6">
+        <v>0.9125</v>
+      </c>
+      <c r="S62" t="n" s="6">
+        <v>0.9291666666666667</v>
       </c>
     </row>
     <row r="63">
@@ -1651,13 +2256,25 @@
         <v>67.0</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O63" t="s" s="64">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G63" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H63" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O63" t="n" s="6">
+        <v>0.8854166666666666</v>
+      </c>
+      <c r="P63" t="n" s="6">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="R63" t="n" s="6">
+        <v>0.8701388888888889</v>
+      </c>
+      <c r="S63" t="n" s="6">
+        <v>0.9013888888888889</v>
       </c>
     </row>
     <row r="64">
@@ -1671,13 +2288,25 @@
         <v>68.0</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O64" t="s" s="65">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G64" t="n" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H64" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O64" t="n" s="6">
+        <v>0.9215277777777777</v>
+      </c>
+      <c r="P64" t="n" s="6">
+        <v>0.9451388888888889</v>
+      </c>
+      <c r="R64" t="n" s="6">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="S64" t="n" s="6">
+        <v>0.9388888888888889</v>
       </c>
     </row>
     <row r="65">
@@ -1691,13 +2320,25 @@
         <v>70.0</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G65" t="n" s="5">
         <v>7.0</v>
       </c>
-      <c r="O65" t="s" s="66">
-        <v>21</v>
+      <c r="H65" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O65" t="n" s="6">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="P65" t="n" s="6">
+        <v>0.9479166666666666</v>
+      </c>
+      <c r="R65" t="n" s="6">
+        <v>0.9263888888888889</v>
+      </c>
+      <c r="S65" t="n" s="6">
+        <v>0.9381944444444444</v>
       </c>
     </row>
     <row r="66">
@@ -1713,11 +2354,23 @@
       <c r="F66" t="s">
         <v>20</v>
       </c>
-      <c r="G66" t="n" s="4">
+      <c r="G66" t="n" s="5">
         <v>9.0</v>
       </c>
-      <c r="O66" t="s" s="67">
-        <v>21</v>
+      <c r="H66" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O66" t="n" s="6">
+        <v>0.9138888888888889</v>
+      </c>
+      <c r="P66" t="n" s="6">
+        <v>0.9430555555555555</v>
+      </c>
+      <c r="R66" t="n" s="6">
+        <v>0.9201388888888888</v>
+      </c>
+      <c r="S66" t="n" s="6">
+        <v>0.9395833333333333</v>
       </c>
     </row>
     <row r="67">
@@ -1733,11 +2386,23 @@
       <c r="F67" t="s">
         <v>20</v>
       </c>
-      <c r="G67" t="n" s="4">
+      <c r="G67" t="n" s="5">
         <v>6.0</v>
       </c>
-      <c r="O67" t="s" s="68">
-        <v>21</v>
+      <c r="H67" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O67" t="n" s="6">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P67" t="n" s="6">
+        <v>0.9381944444444444</v>
+      </c>
+      <c r="R67" t="n" s="6">
+        <v>0.9277777777777778</v>
+      </c>
+      <c r="S67" t="n" s="6">
+        <v>0.9381944444444444</v>
       </c>
     </row>
     <row r="68">
@@ -1751,13 +2416,25 @@
         <v>73.0</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O68" t="s" s="69">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G68" t="n" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H68" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O68" t="n" s="6">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="P68" t="n" s="6">
+        <v>0.9430555555555555</v>
+      </c>
+      <c r="R68" t="n" s="6">
+        <v>0.9284722222222223</v>
+      </c>
+      <c r="S68" t="n" s="6">
+        <v>0.9479166666666666</v>
       </c>
     </row>
     <row r="69">
@@ -1771,13 +2448,25 @@
         <v>74.0</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O69" t="s" s="70">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G69" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H69" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O69" t="n" s="6">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="P69" t="n" s="6">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="R69" t="n" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="S69" t="n" s="6">
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="70">
@@ -1791,13 +2480,25 @@
         <v>75.0</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O70" t="s" s="71">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G70" t="n" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H70" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O70" t="n" s="6">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="P70" t="n" s="6">
+        <v>0.9513888888888888</v>
+      </c>
+      <c r="R70" t="n" s="6">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S70" t="n" s="6">
+        <v>0.9513888888888888</v>
       </c>
     </row>
     <row r="71">
@@ -1811,13 +2512,25 @@
         <v>77.0</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O71" t="s" s="72">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G71" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H71" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O71" t="n" s="6">
+        <v>0.9097222222222222</v>
+      </c>
+      <c r="P71" t="n" s="6">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R71" t="n" s="6">
+        <v>0.8923611111111112</v>
+      </c>
+      <c r="S71" t="n" s="6">
+        <v>0.9270833333333334</v>
       </c>
     </row>
     <row r="72">
@@ -1831,13 +2544,25 @@
         <v>78.0</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G72" t="n" s="5">
         <v>4.0</v>
       </c>
-      <c r="O72" t="s" s="73">
-        <v>21</v>
+      <c r="H72" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O72" t="n" s="6">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P72" t="n" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="R72" t="n" s="6">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="S72" t="n" s="6">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="73">
@@ -1851,13 +2576,25 @@
         <v>79.0</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O73" t="s" s="74">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="G73" t="n" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H73" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O73" t="n" s="6">
+        <v>0.9361111111111111</v>
+      </c>
+      <c r="P73" t="n" s="6">
+        <v>0.9472222222222222</v>
+      </c>
+      <c r="R73" t="n" s="6">
+        <v>0.9361111111111111</v>
+      </c>
+      <c r="S73" t="n" s="6">
+        <v>0.9472222222222222</v>
       </c>
     </row>
     <row r="74">
@@ -1871,13 +2608,25 @@
         <v>80.0</v>
       </c>
       <c r="F74" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O74" t="s" s="75">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="G74" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H74" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O74" t="n" s="6">
+        <v>0.8854166666666666</v>
+      </c>
+      <c r="P74" t="n" s="6">
+        <v>0.9340277777777778</v>
+      </c>
+      <c r="R74" t="n" s="6">
+        <v>0.8631944444444445</v>
+      </c>
+      <c r="S74" t="n" s="6">
+        <v>0.9118055555555555</v>
       </c>
     </row>
     <row r="75">
@@ -1891,13 +2640,25 @@
         <v>81.0</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O75" t="s" s="76">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G75" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H75" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O75" t="n" s="6">
+        <v>0.8118055555555556</v>
+      </c>
+      <c r="P75" t="n" s="6">
+        <v>0.8743055555555556</v>
+      </c>
+      <c r="R75" t="n" s="6">
+        <v>0.7805555555555556</v>
+      </c>
+      <c r="S75" t="n" s="6">
+        <v>0.8430555555555556</v>
       </c>
     </row>
     <row r="76">
@@ -1911,13 +2672,25 @@
         <v>82.0</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O76" t="s" s="77">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G76" t="n" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H76" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O76" t="n" s="6">
+        <v>0.84375</v>
+      </c>
+      <c r="P76" t="n" s="6">
+        <v>0.8854166666666666</v>
+      </c>
+      <c r="R76" t="n" s="6">
+        <v>0.8020833333333334</v>
+      </c>
+      <c r="S76" t="n" s="6">
+        <v>0.84375</v>
       </c>
     </row>
     <row r="77">
@@ -1931,13 +2704,25 @@
         <v>84.0</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G77" t="n" s="5">
         <v>4.0</v>
       </c>
-      <c r="O77" t="s" s="78">
-        <v>21</v>
+      <c r="H77" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O77" t="n" s="6">
+        <v>0.9041666666666667</v>
+      </c>
+      <c r="P77" t="n" s="6">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R77" t="n" s="6">
+        <v>0.9090277777777778</v>
+      </c>
+      <c r="S77" t="n" s="6">
+        <v>0.9465277777777777</v>
       </c>
     </row>
     <row r="78">
@@ -1951,13 +2736,25 @@
         <v>86.0</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G78" t="n" s="5">
         <v>8.0</v>
       </c>
-      <c r="O78" t="s" s="79">
-        <v>21</v>
+      <c r="H78" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O78" t="n" s="6">
+        <v>0.8951388888888889</v>
+      </c>
+      <c r="P78" t="n" s="6">
+        <v>0.9395833333333333</v>
+      </c>
+      <c r="R78" t="n" s="6">
+        <v>0.9173611111111111</v>
+      </c>
+      <c r="S78" t="n" s="6">
+        <v>0.9395833333333333</v>
       </c>
     </row>
     <row r="79">
@@ -1971,13 +2768,25 @@
         <v>87.0</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O79" t="s" s="80">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="G79" t="n" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H79" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O79" t="n" s="6">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="P79" t="n" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="R79" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="S79" t="s" s="6">
+        <v>25</v>
       </c>
     </row>
     <row r="80">
@@ -1991,13 +2800,25 @@
         <v>88.0</v>
       </c>
       <c r="F80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G80" t="n" s="5">
         <v>10.0</v>
       </c>
-      <c r="O80" t="s" s="81">
-        <v>21</v>
+      <c r="H80" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O80" t="n" s="6">
+        <v>0.9111111111111111</v>
+      </c>
+      <c r="P80" t="n" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="R80" t="n" s="6">
+        <v>0.9291666666666667</v>
+      </c>
+      <c r="S80" t="n" s="6">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="81">
@@ -2011,13 +2832,25 @@
         <v>89.0</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O81" t="s" s="82">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G81" t="n" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H81" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O81" t="n" s="6">
+        <v>0.9090277777777778</v>
+      </c>
+      <c r="P81" t="n" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="R81" t="n" s="6">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="S81" t="n" s="6">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="82">
@@ -2031,13 +2864,25 @@
         <v>90.0</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G82" t="n" s="5">
         <v>5.0</v>
       </c>
-      <c r="O82" t="s" s="83">
-        <v>21</v>
+      <c r="H82" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O82" t="n" s="6">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P82" t="n" s="6">
+        <v>0.9479166666666666</v>
+      </c>
+      <c r="R82" t="n" s="6">
+        <v>0.9229166666666667</v>
+      </c>
+      <c r="S82" t="n" s="6">
+        <v>0.94375</v>
       </c>
     </row>
     <row r="83">
@@ -2051,13 +2896,25 @@
         <v>91.0</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
-      </c>
-      <c r="G83" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O83" t="s" s="84">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G83" t="n" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H83" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O83" t="n" s="6">
+        <v>0.9020833333333333</v>
+      </c>
+      <c r="P83" t="n" s="6">
+        <v>0.9388888888888889</v>
+      </c>
+      <c r="R83" t="n" s="6">
+        <v>0.9111111111111111</v>
+      </c>
+      <c r="S83" t="n" s="6">
+        <v>0.9298611111111111</v>
       </c>
     </row>
     <row r="84">
@@ -2071,13 +2928,25 @@
         <v>92.0</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
-      </c>
-      <c r="G84" t="n" s="4">
+        <v>24</v>
+      </c>
+      <c r="G84" t="n" s="5">
         <v>5.0</v>
       </c>
-      <c r="O84" t="s" s="85">
-        <v>21</v>
+      <c r="H84" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O84" t="n" s="6">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P84" t="n" s="6">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R84" t="n" s="6">
+        <v>0.9229166666666667</v>
+      </c>
+      <c r="S84" t="n" s="6">
+        <v>0.9479166666666666</v>
       </c>
     </row>
     <row r="85">
@@ -2091,13 +2960,25 @@
         <v>94.0</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G85" t="n" s="5">
         <v>4.0</v>
       </c>
-      <c r="O85" t="s" s="86">
-        <v>21</v>
+      <c r="H85" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O85" t="n" s="6">
+        <v>0.9173611111111111</v>
+      </c>
+      <c r="P85" t="n" s="6">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="R85" t="n" s="6">
+        <v>0.9173611111111111</v>
+      </c>
+      <c r="S85" t="n" s="6">
+        <v>0.9409722222222222</v>
       </c>
     </row>
     <row r="86">
@@ -2111,13 +2992,25 @@
         <v>95.0</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G86" t="n" s="5">
         <v>7.0</v>
       </c>
-      <c r="O86" t="s" s="87">
-        <v>21</v>
+      <c r="H86" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O86" t="n" s="6">
+        <v>0.8965277777777778</v>
+      </c>
+      <c r="P86" t="n" s="6">
+        <v>0.9388888888888889</v>
+      </c>
+      <c r="R86" t="n" s="6">
+        <v>0.9173611111111111</v>
+      </c>
+      <c r="S86" t="n" s="6">
+        <v>0.9458333333333333</v>
       </c>
     </row>
     <row r="87">
@@ -2131,13 +3024,25 @@
         <v>99.0</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G87" t="n" s="5">
         <v>4.0</v>
       </c>
-      <c r="O87" t="s" s="88">
-        <v>21</v>
+      <c r="H87" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O87" t="n" s="6">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="P87" t="n" s="6">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R87" t="n" s="6">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="S87" t="n" s="6">
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="88">
@@ -2151,13 +3056,25 @@
         <v>101.0</v>
       </c>
       <c r="F88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G88" t="n" s="4">
+        <v>24</v>
+      </c>
+      <c r="G88" t="n" s="5">
         <v>5.0</v>
       </c>
-      <c r="O88" t="s" s="89">
-        <v>21</v>
+      <c r="H88" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O88" t="n" s="6">
+        <v>0.9159722222222222</v>
+      </c>
+      <c r="P88" t="n" s="6">
+        <v>0.9534722222222223</v>
+      </c>
+      <c r="R88" t="n" s="6">
+        <v>0.9069444444444444</v>
+      </c>
+      <c r="S88" t="n" s="6">
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="89">
@@ -2171,13 +3088,25 @@
         <v>102.0</v>
       </c>
       <c r="F89" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" t="n" s="4">
+        <v>24</v>
+      </c>
+      <c r="G89" t="n" s="5">
         <v>5.0</v>
       </c>
-      <c r="O89" t="s" s="90">
-        <v>21</v>
+      <c r="H89" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O89" t="n" s="6">
+        <v>0.9055555555555556</v>
+      </c>
+      <c r="P89" t="n" s="6">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R89" t="n" s="6">
+        <v>0.9145833333333333</v>
+      </c>
+      <c r="S89" t="n" s="6">
+        <v>0.9506944444444444</v>
       </c>
     </row>
     <row r="90">
@@ -2191,13 +3120,25 @@
         <v>103.0</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O90" t="s" s="91">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G90" t="n" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H90" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O90" t="n" s="6">
+        <v>0.9020833333333333</v>
+      </c>
+      <c r="P90" t="n" s="6">
+        <v>0.9298611111111111</v>
+      </c>
+      <c r="R90" t="n" s="6">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="S90" t="n" s="6">
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="91">
@@ -2211,13 +3152,25 @@
         <v>104.0</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O91" t="s" s="92">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G91" t="n" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H91" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O91" t="n" s="6">
+        <v>0.8993055555555556</v>
+      </c>
+      <c r="P91" t="n" s="6">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="R91" t="n" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="S91" t="n" s="6">
+        <v>0.8993055555555556</v>
       </c>
     </row>
     <row r="92">
@@ -2231,13 +3184,25 @@
         <v>106.0</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
-      </c>
-      <c r="G92" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G92" t="n" s="5">
         <v>4.0</v>
       </c>
-      <c r="O92" t="s" s="93">
-        <v>21</v>
+      <c r="H92" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O92" t="n" s="6">
+        <v>0.8756944444444444</v>
+      </c>
+      <c r="P92" t="n" s="6">
+        <v>0.9104166666666667</v>
+      </c>
+      <c r="R92" t="n" s="6">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="S92" t="n" s="6">
+        <v>0.9305555555555556</v>
       </c>
     </row>
     <row r="93">
@@ -2251,13 +3216,25 @@
         <v>107.0</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O93" t="s" s="94">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G93" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H93" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O93" t="n" s="6">
+        <v>0.8680555555555556</v>
+      </c>
+      <c r="P93" t="n" s="6">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R93" t="n" s="6">
+        <v>0.8298611111111112</v>
+      </c>
+      <c r="S93" t="n" s="6">
+        <v>0.90625</v>
       </c>
     </row>
     <row r="94">
@@ -2271,13 +3248,25 @@
         <v>108.0</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
-      </c>
-      <c r="G94" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G94" t="n" s="5">
         <v>4.0</v>
       </c>
-      <c r="O94" t="s" s="95">
-        <v>21</v>
+      <c r="H94" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O94" t="n" s="6">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P94" t="n" s="6">
+        <v>0.9340277777777778</v>
+      </c>
+      <c r="R94" t="n" s="6">
+        <v>0.9173611111111111</v>
+      </c>
+      <c r="S94" t="n" s="6">
+        <v>0.9520833333333333</v>
       </c>
     </row>
     <row r="95">
@@ -2291,13 +3280,25 @@
         <v>109.0</v>
       </c>
       <c r="F95" t="s">
-        <v>25</v>
-      </c>
-      <c r="G95" t="n" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="O95" t="s" s="96">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G95" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H95" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O95" t="n" s="6">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="P95" t="n" s="6">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R95" t="n" s="6">
+        <v>0.8694444444444445</v>
+      </c>
+      <c r="S95" t="n" s="6">
+        <v>0.9180555555555555</v>
       </c>
     </row>
     <row r="96">
@@ -2311,13 +3312,25 @@
         <v>110.0</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
-      </c>
-      <c r="G96" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O96" t="s" s="97">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G96" t="n" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H96" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O96" t="n" s="6">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="P96" t="n" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="R96" t="n" s="6">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="S96" t="n" s="6">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="97">
@@ -2331,13 +3344,25 @@
         <v>112.0</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G97" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O97" t="s" s="98">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G97" t="n" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H97" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O97" t="n" s="6">
+        <v>0.89375</v>
+      </c>
+      <c r="P97" t="n" s="6">
+        <v>0.9215277777777777</v>
+      </c>
+      <c r="R97" t="n" s="6">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="S97" t="n" s="6">
+        <v>0.8819444444444444</v>
       </c>
     </row>
     <row r="98">
@@ -2351,13 +3376,25 @@
         <v>121.0</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G98" t="n" s="5">
         <v>5.0</v>
       </c>
-      <c r="O98" t="s" s="99">
-        <v>21</v>
+      <c r="H98" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O98" t="n" s="6">
+        <v>0.925</v>
+      </c>
+      <c r="P98" t="n" s="6">
+        <v>0.9472222222222222</v>
+      </c>
+      <c r="R98" t="n" s="6">
+        <v>0.93125</v>
+      </c>
+      <c r="S98" t="n" s="6">
+        <v>0.9423611111111111</v>
       </c>
     </row>
     <row r="99">
@@ -2371,13 +3408,25 @@
         <v>122.0</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" t="n" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="O99" t="s" s="100">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G99" t="n" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="H99" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O99" t="n" s="6">
+        <v>0.8993055555555556</v>
+      </c>
+      <c r="P99" t="n" s="6">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="R99" t="n" s="6">
+        <v>0.8986111111111111</v>
+      </c>
+      <c r="S99" t="n" s="6">
+        <v>0.9229166666666667</v>
       </c>
     </row>
     <row r="100">
@@ -2391,13 +3440,25 @@
         <v>124.0</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O100" t="s" s="101">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G100" t="n" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H100" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O100" t="n" s="6">
+        <v>0.9131944444444444</v>
+      </c>
+      <c r="P100" t="n" s="6">
+        <v>0.9291666666666667</v>
+      </c>
+      <c r="R100" t="n" s="6">
+        <v>0.9368055555555556</v>
+      </c>
+      <c r="S100" t="n" s="6">
+        <v>0.9527777777777777</v>
       </c>
     </row>
     <row r="101">
@@ -2411,13 +3472,25 @@
         <v>150.0</v>
       </c>
       <c r="F101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G101" t="n" s="4">
+        <v>23</v>
+      </c>
+      <c r="G101" t="n" s="5">
         <v>10.0</v>
       </c>
-      <c r="O101" t="s" s="102">
-        <v>21</v>
+      <c r="H101" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O101" t="n" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="P101" t="n" s="6">
+        <v>0.9451388888888889</v>
+      </c>
+      <c r="R101" t="n" s="6">
+        <v>0.9215277777777777</v>
+      </c>
+      <c r="S101" t="n" s="6">
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="102">
@@ -2431,13 +3504,25 @@
         <v>301.0</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G102" t="n" s="5">
         <v>16.0</v>
       </c>
-      <c r="O102" t="s" s="103">
-        <v>21</v>
+      <c r="H102" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O102" t="n" s="6">
+        <v>0.9354166666666667</v>
+      </c>
+      <c r="P102" t="n" s="6">
+        <v>0.9451388888888889</v>
+      </c>
+      <c r="R102" t="n" s="6">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S102" t="n" s="6">
+        <v>0.9409722222222222</v>
       </c>
     </row>
     <row r="103">
@@ -2451,13 +3536,25 @@
         <v>321.0</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G103" t="n" s="5">
         <v>4.0</v>
       </c>
-      <c r="O103" t="s" s="104">
-        <v>21</v>
+      <c r="H103" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O103" t="n" s="6">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="P103" t="n" s="6">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R103" t="n" s="6">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="S103" t="n" s="6">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="104">
@@ -2471,13 +3568,25 @@
         <v>332.0</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G104" t="n" s="5">
         <v>8.0</v>
       </c>
-      <c r="O104" t="s" s="105">
-        <v>21</v>
+      <c r="H104" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O104" t="n" s="6">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="P104" t="n" s="6">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="R104" t="n" s="6">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S104" t="n" s="6">
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="105">
@@ -2493,11 +3602,23 @@
       <c r="F105" t="s">
         <v>20</v>
       </c>
-      <c r="G105" t="n" s="4">
+      <c r="G105" t="n" s="5">
         <v>8.0</v>
       </c>
-      <c r="O105" t="s" s="106">
-        <v>21</v>
+      <c r="H105" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O105" t="n" s="6">
+        <v>0.9256944444444445</v>
+      </c>
+      <c r="P105" t="n" s="6">
+        <v>0.9375</v>
+      </c>
+      <c r="R105" t="n" s="6">
+        <v>0.9256944444444445</v>
+      </c>
+      <c r="S105" t="n" s="6">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="106">
@@ -2511,13 +3632,25 @@
         <v>339.0</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G106" t="n" s="5">
         <v>4.0</v>
       </c>
-      <c r="O106" t="s" s="107">
-        <v>21</v>
+      <c r="H106" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O106" t="n" s="6">
+        <v>0.9430555555555555</v>
+      </c>
+      <c r="P106" t="n" s="6">
+        <v>0.9479166666666666</v>
+      </c>
+      <c r="R106" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="S106" t="s" s="6">
+        <v>25</v>
       </c>
     </row>
     <row r="107">
@@ -2531,13 +3664,25 @@
         <v>343.0</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G107" t="n" s="5">
         <v>9.0</v>
       </c>
-      <c r="O107" t="s" s="108">
-        <v>21</v>
+      <c r="H107" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O107" t="n" s="6">
+        <v>0.9291666666666667</v>
+      </c>
+      <c r="P107" t="n" s="6">
+        <v>0.9395833333333333</v>
+      </c>
+      <c r="R107" t="n" s="6">
+        <v>0.9340277777777778</v>
+      </c>
+      <c r="S107" t="n" s="6">
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="108">
@@ -2551,13 +3696,25 @@
         <v>344.0</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G108" t="n" s="5">
         <v>9.0</v>
       </c>
-      <c r="O108" t="s" s="109">
-        <v>21</v>
+      <c r="H108" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O108" t="n" s="6">
+        <v>0.9347222222222222</v>
+      </c>
+      <c r="P108" t="n" s="6">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R108" t="n" s="6">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S108" t="n" s="6">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="109">
@@ -2571,13 +3728,25 @@
         <v>345.0</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G109" t="n" s="5">
         <v>15.0</v>
       </c>
-      <c r="O109" t="s" s="110">
-        <v>21</v>
+      <c r="H109" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O109" t="n" s="6">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="P109" t="n" s="6">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="R109" t="n" s="6">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="S109" t="n" s="6">
+        <v>0.9409722222222222</v>
       </c>
     </row>
     <row r="110">
@@ -2591,13 +3760,25 @@
         <v>346.0</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G110" t="n" s="5">
         <v>10.0</v>
       </c>
-      <c r="O110" t="s" s="111">
-        <v>21</v>
+      <c r="H110" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O110" t="n" s="6">
+        <v>0.9326388888888889</v>
+      </c>
+      <c r="P110" t="n" s="6">
+        <v>0.9416666666666667</v>
+      </c>
+      <c r="R110" t="n" s="6">
+        <v>0.9326388888888889</v>
+      </c>
+      <c r="S110" t="n" s="6">
+        <v>0.9416666666666667</v>
       </c>
     </row>
     <row r="111">
@@ -2611,13 +3792,25 @@
         <v>363.0</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
-      </c>
-      <c r="G111" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G111" t="n" s="5">
         <v>8.0</v>
       </c>
-      <c r="O111" t="s" s="112">
-        <v>21</v>
+      <c r="H111" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O111" t="n" s="6">
+        <v>0.9263888888888889</v>
+      </c>
+      <c r="P111" t="n" s="6">
+        <v>0.9388888888888889</v>
+      </c>
+      <c r="R111" t="n" s="6">
+        <v>0.9263888888888889</v>
+      </c>
+      <c r="S111" t="n" s="6">
+        <v>0.9388888888888889</v>
       </c>
     </row>
     <row r="112">
@@ -2631,13 +3824,25 @@
         <v>383.0</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
-      </c>
-      <c r="G112" t="n" s="4">
+        <v>22</v>
+      </c>
+      <c r="G112" t="n" s="5">
         <v>8.0</v>
       </c>
-      <c r="O112" t="s" s="113">
-        <v>21</v>
+      <c r="H112" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O112" t="n" s="6">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="P112" t="n" s="6">
+        <v>0.9423611111111111</v>
+      </c>
+      <c r="R112" t="n" s="6">
+        <v>0.9326388888888889</v>
+      </c>
+      <c r="S112" t="n" s="6">
+        <v>0.9416666666666667</v>
       </c>
     </row>
     <row r="113">
@@ -2651,13 +3856,25 @@
         <v>385.0</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" t="n" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="O113" t="s" s="114">
         <v>21</v>
+      </c>
+      <c r="G113" t="n" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H113" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O113" t="n" s="6">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="P113" t="n" s="6">
+        <v>0.9430555555555555</v>
+      </c>
+      <c r="R113" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="S113" t="s" s="6">
+        <v>25</v>
       </c>
     </row>
     <row r="114">
@@ -2671,13 +3888,25 @@
         <v>387.0</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" t="n" s="4">
+        <v>21</v>
+      </c>
+      <c r="G114" t="n" s="5">
         <v>4.0</v>
       </c>
-      <c r="O114" t="s" s="115">
-        <v>21</v>
+      <c r="H114" t="n" s="7">
+        <v>1.1574074074074075E-5</v>
+      </c>
+      <c r="O114" t="n" s="6">
+        <v>0.9298611111111111</v>
+      </c>
+      <c r="P114" t="n" s="6">
+        <v>0.9402777777777778</v>
+      </c>
+      <c r="R114" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="S114" t="s" s="6">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/asdasd.xlsx
+++ b/downloads/asdasd.xlsx
@@ -96,12 +96,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode=""/>
-    <numFmt numFmtId="165" formatCode="[mm]:ss"/>
-    <numFmt numFmtId="166" formatCode="[hh]:mm"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="[mm]:ss"/>
+    <numFmt numFmtId="167" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -143,6 +144,10 @@
       <name val="Sylfaen"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Sylfaen"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Sylfaen"/>
@@ -245,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment textRotation="90" wrapText="true" horizontal="center" vertical="center"/>
@@ -278,6 +283,9 @@
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="11" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,22 +506,25 @@
       <c r="G5" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H5" t="n" s="10">
+      <c r="H5" t="n" s="11">
         <v>0.008333333333333333</v>
       </c>
-      <c r="I5" t="n" s="11">
-        <v>0.06597222222222222</v>
-      </c>
-      <c r="O5" t="n" s="11">
+      <c r="I5" t="n" s="12">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="J5" t="n" s="10">
+        <v>71.0</v>
+      </c>
+      <c r="O5" t="n" s="12">
         <v>0.925</v>
       </c>
-      <c r="P5" t="n" s="11">
+      <c r="P5" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
-      <c r="R5" t="n" s="11">
+      <c r="R5" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="S5" t="n" s="11">
+      <c r="S5" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
     </row>
@@ -533,22 +544,25 @@
       <c r="G6" t="n" s="9">
         <v>11.0</v>
       </c>
-      <c r="H6" t="n" s="10">
+      <c r="H6" t="n" s="11">
         <v>0.006944444444444444</v>
       </c>
-      <c r="I6" t="n" s="11">
-        <v>0.07291666666666667</v>
-      </c>
-      <c r="O6" t="n" s="11">
+      <c r="I6" t="n" s="12">
+        <v>0.0763888888888889</v>
+      </c>
+      <c r="J6" t="n" s="10">
+        <v>92.0</v>
+      </c>
+      <c r="O6" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="P6" t="n" s="11">
+      <c r="P6" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="R6" t="n" s="11">
+      <c r="R6" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S6" t="n" s="11">
+      <c r="S6" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
     </row>
@@ -568,22 +582,25 @@
       <c r="G7" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H7" t="n" s="10">
+      <c r="H7" t="n" s="11">
         <v>0.011111111111111112</v>
       </c>
-      <c r="I7" t="n" s="11">
-        <v>0.06319444444444444</v>
-      </c>
-      <c r="O7" t="n" s="11">
+      <c r="I7" t="n" s="12">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="J7" t="n" s="10">
+        <v>55.0</v>
+      </c>
+      <c r="O7" t="n" s="12">
         <v>0.9180555555555555</v>
       </c>
-      <c r="P7" t="n" s="11">
+      <c r="P7" t="n" s="12">
         <v>0.9402777777777778</v>
       </c>
-      <c r="R7" t="n" s="11">
+      <c r="R7" t="n" s="12">
         <v>0.9180555555555555</v>
       </c>
-      <c r="S7" t="n" s="11">
+      <c r="S7" t="n" s="12">
         <v>0.9402777777777778</v>
       </c>
     </row>
@@ -603,22 +620,25 @@
       <c r="G8" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H8" t="n" s="10">
+      <c r="H8" t="n" s="11">
         <v>0.027777777777777776</v>
       </c>
-      <c r="I8" t="n" s="11">
-        <v>0.07777777777777778</v>
-      </c>
-      <c r="O8" t="n" s="11">
+      <c r="I8" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J8" t="n" s="10">
+        <v>22.0</v>
+      </c>
+      <c r="O8" t="n" s="12">
         <v>0.9145833333333333</v>
       </c>
-      <c r="P8" t="n" s="11">
+      <c r="P8" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
-      <c r="R8" t="n" s="11">
+      <c r="R8" t="n" s="12">
         <v>0.875</v>
       </c>
-      <c r="S8" t="n" s="11">
+      <c r="S8" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
     </row>
@@ -638,22 +658,25 @@
       <c r="G9" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H9" t="n" s="10">
+      <c r="H9" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I9" t="n" s="11">
-        <v>0.0798611111111111</v>
-      </c>
-      <c r="O9" t="n" s="11">
+      <c r="I9" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J9" t="n" s="10">
+        <v>14.0</v>
+      </c>
+      <c r="O9" t="n" s="12">
         <v>0.875</v>
       </c>
-      <c r="P9" t="n" s="11">
+      <c r="P9" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="R9" t="n" s="11">
+      <c r="R9" t="n" s="12">
         <v>0.8333333333333334</v>
       </c>
-      <c r="S9" t="n" s="11">
+      <c r="S9" t="n" s="12">
         <v>0.875</v>
       </c>
     </row>
@@ -673,22 +696,25 @@
       <c r="G10" t="n" s="9">
         <v>7.0</v>
       </c>
-      <c r="H10" t="n" s="10">
+      <c r="H10" t="n" s="11">
         <v>0.013888888888888888</v>
       </c>
-      <c r="I10" t="n" s="11">
-        <v>0.09375</v>
-      </c>
-      <c r="O10" t="n" s="11">
+      <c r="I10" t="n" s="12">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="J10" t="n" s="10">
+        <v>44.0</v>
+      </c>
+      <c r="O10" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P10" t="n" s="11">
+      <c r="P10" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R10" t="n" s="11">
+      <c r="R10" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
-      <c r="S10" t="n" s="11">
+      <c r="S10" t="n" s="12">
         <v>0.9493055555555555</v>
       </c>
     </row>
@@ -708,22 +734,25 @@
       <c r="G11" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H11" t="n" s="10">
+      <c r="H11" t="n" s="11">
         <v>0.013888888888888888</v>
       </c>
-      <c r="I11" t="n" s="11">
-        <v>0.03819444444444445</v>
-      </c>
-      <c r="O11" t="n" s="11">
+      <c r="I11" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J11" t="n" s="10">
+        <v>44.0</v>
+      </c>
+      <c r="O11" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="P11" t="n" s="11">
+      <c r="P11" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
-      <c r="R11" t="n" s="11">
+      <c r="R11" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="S11" t="n" s="11">
+      <c r="S11" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
     </row>
@@ -743,22 +772,25 @@
       <c r="G12" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H12" t="n" s="10">
+      <c r="H12" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I12" t="n" s="11">
-        <v>0.04861111111111111</v>
-      </c>
-      <c r="O12" t="n" s="11">
+      <c r="I12" t="n" s="12">
+        <v>0.052083333333333336</v>
+      </c>
+      <c r="J12" t="n" s="10">
+        <v>62.0</v>
+      </c>
+      <c r="O12" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
-      <c r="P12" t="n" s="11">
+      <c r="P12" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
-      <c r="R12" t="n" s="11">
+      <c r="R12" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
-      <c r="S12" t="n" s="11">
+      <c r="S12" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
     </row>
@@ -778,22 +810,25 @@
       <c r="G13" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H13" t="n" s="10">
+      <c r="H13" t="n" s="11">
         <v>0.027083333333333334</v>
       </c>
-      <c r="I13" t="n" s="11">
-        <v>0.10208333333333333</v>
-      </c>
-      <c r="O13" t="n" s="11">
+      <c r="I13" t="n" s="12">
+        <v>0.10694444444444444</v>
+      </c>
+      <c r="J13" t="n" s="10">
+        <v>23.0</v>
+      </c>
+      <c r="O13" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
-      <c r="P13" t="n" s="11">
+      <c r="P13" t="n" s="12">
         <v>0.9368055555555556</v>
       </c>
-      <c r="R13" t="n" s="11">
+      <c r="R13" t="n" s="12">
         <v>0.8840277777777777</v>
       </c>
-      <c r="S13" t="n" s="11">
+      <c r="S13" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -813,22 +848,25 @@
       <c r="G14" t="n" s="9">
         <v>7.0</v>
       </c>
-      <c r="H14" t="n" s="10">
+      <c r="H14" t="n" s="11">
         <v>0.0125</v>
       </c>
-      <c r="I14" t="n" s="11">
-        <v>0.08402777777777778</v>
-      </c>
-      <c r="O14" t="n" s="11">
+      <c r="I14" t="n" s="12">
+        <v>0.0875</v>
+      </c>
+      <c r="J14" t="n" s="10">
+        <v>49.0</v>
+      </c>
+      <c r="O14" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="P14" t="n" s="11">
+      <c r="P14" t="n" s="12">
         <v>0.9486111111111111</v>
       </c>
-      <c r="R14" t="n" s="11">
+      <c r="R14" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
-      <c r="S14" t="n" s="11">
+      <c r="S14" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
     </row>
@@ -848,22 +886,25 @@
       <c r="G15" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H15" t="n" s="10">
+      <c r="H15" t="n" s="11">
         <v>0.01875</v>
       </c>
-      <c r="I15" t="n" s="11">
-        <v>0.07013888888888889</v>
-      </c>
-      <c r="O15" t="n" s="11">
+      <c r="I15" t="n" s="12">
+        <v>0.07361111111111111</v>
+      </c>
+      <c r="J15" t="n" s="10">
+        <v>34.0</v>
+      </c>
+      <c r="O15" t="n" s="12">
         <v>0.8986111111111111</v>
       </c>
-      <c r="P15" t="n" s="11">
+      <c r="P15" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
-      <c r="R15" t="n" s="11">
+      <c r="R15" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
-      <c r="S15" t="n" s="11">
+      <c r="S15" t="n" s="12">
         <v>0.9534722222222223</v>
       </c>
     </row>
@@ -883,22 +924,25 @@
       <c r="G16" t="n" s="9">
         <v>11.0</v>
       </c>
-      <c r="H16" t="n" s="10">
+      <c r="H16" t="n" s="11">
         <v>0.009027777777777777</v>
       </c>
-      <c r="I16" t="n" s="11">
-        <v>0.09513888888888888</v>
-      </c>
-      <c r="O16" t="n" s="11">
+      <c r="I16" t="n" s="12">
+        <v>0.09930555555555555</v>
+      </c>
+      <c r="J16" t="n" s="10">
+        <v>67.0</v>
+      </c>
+      <c r="O16" t="n" s="12">
         <v>0.9055555555555556</v>
       </c>
-      <c r="P16" t="n" s="11">
+      <c r="P16" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R16" t="n" s="11">
+      <c r="R16" t="n" s="12">
         <v>0.9368055555555556</v>
       </c>
-      <c r="S16" t="n" s="11">
+      <c r="S16" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
     </row>
@@ -918,22 +962,25 @@
       <c r="G17" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H17" t="n" s="10">
+      <c r="H17" t="n" s="11">
         <v>0.013888888888888888</v>
       </c>
-      <c r="I17" t="n" s="11">
-        <v>0.0798611111111111</v>
-      </c>
-      <c r="O17" t="n" s="11">
+      <c r="I17" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J17" t="n" s="10">
+        <v>43.0</v>
+      </c>
+      <c r="O17" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
-      <c r="P17" t="n" s="11">
+      <c r="P17" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R17" t="n" s="11">
+      <c r="R17" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="S17" t="n" s="11">
+      <c r="S17" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -953,22 +1000,25 @@
       <c r="G18" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H18" t="n" s="10">
+      <c r="H18" t="n" s="11">
         <v>0.08333333333333333</v>
       </c>
-      <c r="I18" t="n" s="11">
-        <v>0.0798611111111111</v>
-      </c>
-      <c r="O18" t="n" s="11">
+      <c r="I18" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J18" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="O18" t="n" s="12">
         <v>0.8125</v>
       </c>
-      <c r="P18" t="n" s="11">
+      <c r="P18" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
-      <c r="R18" t="n" s="11">
+      <c r="R18" t="n" s="12">
         <v>0.7708333333333334</v>
       </c>
-      <c r="S18" t="n" s="11">
+      <c r="S18" t="n" s="12">
         <v>0.8541666666666666</v>
       </c>
     </row>
@@ -988,22 +1038,25 @@
       <c r="G19" t="n" s="9">
         <v>7.0</v>
       </c>
-      <c r="H19" t="n" s="10">
+      <c r="H19" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I19" t="n" s="11">
-        <v>0.06944444444444445</v>
-      </c>
-      <c r="O19" t="n" s="11">
+      <c r="I19" t="n" s="12">
+        <v>0.07291666666666667</v>
+      </c>
+      <c r="J19" t="n" s="10">
+        <v>58.0</v>
+      </c>
+      <c r="O19" t="n" s="12">
         <v>0.90625</v>
       </c>
-      <c r="P19" t="n" s="11">
+      <c r="P19" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R19" t="n" s="11">
+      <c r="R19" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
-      <c r="S19" t="n" s="11">
+      <c r="S19" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
     </row>
@@ -1023,22 +1076,25 @@
       <c r="G20" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H20" t="n" s="10">
+      <c r="H20" t="n" s="11">
         <v>0.027777777777777776</v>
       </c>
-      <c r="I20" t="n" s="11">
-        <v>0.0798611111111111</v>
-      </c>
-      <c r="O20" t="n" s="11">
+      <c r="I20" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J20" t="n" s="10">
+        <v>23.0</v>
+      </c>
+      <c r="O20" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="P20" t="n" s="11">
+      <c r="P20" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="R20" t="n" s="11">
+      <c r="R20" t="n" s="12">
         <v>0.8888888888888888</v>
       </c>
-      <c r="S20" t="n" s="11">
+      <c r="S20" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
     </row>
@@ -1058,22 +1114,25 @@
       <c r="G21" t="n" s="9">
         <v>10.0</v>
       </c>
-      <c r="H21" t="n" s="10">
+      <c r="H21" t="n" s="11">
         <v>0.007638888888888889</v>
       </c>
-      <c r="I21" t="n" s="11">
-        <v>0.07291666666666667</v>
-      </c>
-      <c r="O21" t="n" s="11">
+      <c r="I21" t="n" s="12">
+        <v>0.0763888888888889</v>
+      </c>
+      <c r="J21" t="n" s="10">
+        <v>82.0</v>
+      </c>
+      <c r="O21" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
-      <c r="P21" t="n" s="11">
+      <c r="P21" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="R21" t="n" s="11">
+      <c r="R21" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
-      <c r="S21" t="n" s="11">
+      <c r="S21" t="n" s="12">
         <v>0.9486111111111111</v>
       </c>
     </row>
@@ -1093,22 +1152,25 @@
       <c r="G22" t="n" s="9">
         <v>11.0</v>
       </c>
-      <c r="H22" t="n" s="10">
+      <c r="H22" t="n" s="11">
         <v>0.011805555555555555</v>
       </c>
-      <c r="I22" t="n" s="11">
-        <v>0.12638888888888888</v>
-      </c>
-      <c r="O22" t="n" s="11">
+      <c r="I22" t="n" s="12">
+        <v>0.12986111111111112</v>
+      </c>
+      <c r="J22" t="n" s="10">
+        <v>51.0</v>
+      </c>
+      <c r="O22" t="n" s="12">
         <v>0.89375</v>
       </c>
-      <c r="P22" t="n" s="11">
+      <c r="P22" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="R22" t="n" s="11">
+      <c r="R22" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
-      <c r="S22" t="n" s="11">
+      <c r="S22" t="n" s="12">
         <v>0.9465277777777777</v>
       </c>
     </row>
@@ -1128,22 +1190,25 @@
       <c r="G23" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H23" t="n" s="10">
+      <c r="H23" t="n" s="11">
         <v>0.027777777777777776</v>
       </c>
-      <c r="I23" t="n" s="11">
-        <v>0.0798611111111111</v>
-      </c>
-      <c r="O23" t="n" s="11">
+      <c r="I23" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J23" t="n" s="10">
+        <v>22.0</v>
+      </c>
+      <c r="O23" t="n" s="12">
         <v>0.875</v>
       </c>
-      <c r="P23" t="n" s="11">
+      <c r="P23" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="R23" t="n" s="11">
+      <c r="R23" t="n" s="12">
         <v>0.9159722222222222</v>
       </c>
-      <c r="S23" t="n" s="11">
+      <c r="S23" t="n" s="12">
         <v>0.94375</v>
       </c>
     </row>
@@ -1163,22 +1228,25 @@
       <c r="G24" t="n" s="9">
         <v>9.0</v>
       </c>
-      <c r="H24" t="n" s="10">
+      <c r="H24" t="n" s="11">
         <v>0.009722222222222222</v>
       </c>
-      <c r="I24" t="n" s="11">
-        <v>0.08680555555555555</v>
-      </c>
-      <c r="O24" t="n" s="11">
+      <c r="I24" t="n" s="12">
+        <v>0.09027777777777778</v>
+      </c>
+      <c r="J24" t="n" s="10">
+        <v>59.0</v>
+      </c>
+      <c r="O24" t="n" s="12">
         <v>0.9152777777777777</v>
       </c>
-      <c r="P24" t="n" s="11">
+      <c r="P24" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
-      <c r="R24" t="n" s="11">
+      <c r="R24" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S24" t="n" s="11">
+      <c r="S24" t="n" s="12">
         <v>0.9402777777777778</v>
       </c>
     </row>
@@ -1198,22 +1266,25 @@
       <c r="G25" t="n" s="9">
         <v>10.0</v>
       </c>
-      <c r="H25" t="n" s="10">
+      <c r="H25" t="n" s="11">
         <v>0.011111111111111112</v>
       </c>
-      <c r="I25" t="n" s="11">
-        <v>0.1076388888888889</v>
-      </c>
-      <c r="O25" t="n" s="11">
+      <c r="I25" t="n" s="12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J25" t="n" s="10">
+        <v>54.0</v>
+      </c>
+      <c r="O25" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
-      <c r="P25" t="n" s="11">
+      <c r="P25" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="R25" t="n" s="11">
+      <c r="R25" t="n" s="12">
         <v>0.9319444444444445</v>
       </c>
-      <c r="S25" t="n" s="11">
+      <c r="S25" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
     </row>
@@ -1233,22 +1304,25 @@
       <c r="G26" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H26" t="n" s="10">
+      <c r="H26" t="n" s="11">
         <v>0.009027777777777777</v>
       </c>
-      <c r="I26" t="n" s="11">
-        <v>0.06875</v>
-      </c>
-      <c r="O26" t="n" s="11">
+      <c r="I26" t="n" s="12">
+        <v>0.07222222222222222</v>
+      </c>
+      <c r="J26" t="n" s="10">
+        <v>69.0</v>
+      </c>
+      <c r="O26" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
-      <c r="P26" t="n" s="11">
+      <c r="P26" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
-      <c r="R26" t="n" s="11">
+      <c r="R26" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
-      <c r="S26" t="n" s="11">
+      <c r="S26" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
     </row>
@@ -1268,22 +1342,25 @@
       <c r="G27" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H27" t="n" s="10">
+      <c r="H27" t="n" s="11">
         <v>0.04861111111111111</v>
       </c>
-      <c r="I27" t="n" s="11">
-        <v>0.04513888888888889</v>
-      </c>
-      <c r="O27" t="n" s="11">
+      <c r="I27" t="n" s="12">
+        <v>0.04861111111111111</v>
+      </c>
+      <c r="J27" t="n" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="O27" t="n" s="12">
         <v>0.8402777777777778</v>
       </c>
-      <c r="P27" t="n" s="11">
+      <c r="P27" t="n" s="12">
         <v>0.8888888888888888</v>
       </c>
-      <c r="R27" t="n" s="11">
+      <c r="R27" t="n" s="12">
         <v>0.8159722222222222</v>
       </c>
-      <c r="S27" t="n" s="11">
+      <c r="S27" t="n" s="12">
         <v>0.8645833333333334</v>
       </c>
     </row>
@@ -1303,22 +1380,25 @@
       <c r="G28" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H28" t="n" s="10">
+      <c r="H28" t="n" s="11">
         <v>0.009722222222222222</v>
       </c>
-      <c r="I28" t="n" s="11">
-        <v>0.05694444444444444</v>
-      </c>
-      <c r="O28" t="n" s="11">
+      <c r="I28" t="n" s="12">
+        <v>0.06041666666666667</v>
+      </c>
+      <c r="J28" t="n" s="10">
+        <v>60.0</v>
+      </c>
+      <c r="O28" t="n" s="12">
         <v>0.9256944444444445</v>
       </c>
-      <c r="P28" t="n" s="11">
+      <c r="P28" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
-      <c r="R28" t="n" s="11">
+      <c r="R28" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
-      <c r="S28" t="n" s="11">
+      <c r="S28" t="n" s="12">
         <v>0.9451388888888889</v>
       </c>
     </row>
@@ -1338,22 +1418,25 @@
       <c r="G29" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H29" t="n" s="10">
+      <c r="H29" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I29" t="n" s="11">
-        <v>0.03819444444444445</v>
-      </c>
-      <c r="O29" t="n" s="11">
+      <c r="I29" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J29" t="n" s="10">
+        <v>59.0</v>
+      </c>
+      <c r="O29" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
-      <c r="P29" t="n" s="11">
+      <c r="P29" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
-      <c r="R29" t="n" s="11">
+      <c r="R29" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
-      <c r="S29" t="n" s="11">
+      <c r="S29" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
     </row>
@@ -1373,22 +1456,25 @@
       <c r="G30" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H30" t="n" s="10">
+      <c r="H30" t="n" s="11">
         <v>0.022916666666666665</v>
       </c>
-      <c r="I30" t="n" s="11">
-        <v>0.06527777777777778</v>
-      </c>
-      <c r="O30" t="n" s="11">
+      <c r="I30" t="n" s="12">
+        <v>0.06875</v>
+      </c>
+      <c r="J30" t="n" s="10">
+        <v>27.0</v>
+      </c>
+      <c r="O30" t="n" s="12">
         <v>0.8986111111111111</v>
       </c>
-      <c r="P30" t="n" s="11">
+      <c r="P30" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R30" t="n" s="11">
+      <c r="R30" t="n" s="12">
         <v>0.9104166666666667</v>
       </c>
-      <c r="S30" t="n" s="11">
+      <c r="S30" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -1408,22 +1494,25 @@
       <c r="G31" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H31" t="n" s="10">
+      <c r="H31" t="n" s="11">
         <v>0.020833333333333332</v>
       </c>
-      <c r="I31" t="n" s="11">
-        <v>0.059027777777777776</v>
-      </c>
-      <c r="O31" t="n" s="11">
+      <c r="I31" t="n" s="12">
+        <v>0.0625</v>
+      </c>
+      <c r="J31" t="n" s="10">
+        <v>29.0</v>
+      </c>
+      <c r="O31" t="n" s="12">
         <v>0.90625</v>
       </c>
-      <c r="P31" t="n" s="11">
+      <c r="P31" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R31" t="n" s="11">
+      <c r="R31" t="n" s="12">
         <v>0.9131944444444444</v>
       </c>
-      <c r="S31" t="n" s="11">
+      <c r="S31" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -1443,22 +1532,25 @@
       <c r="G32" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H32" t="n" s="10">
+      <c r="H32" t="n" s="11">
         <v>0.013888888888888888</v>
       </c>
-      <c r="I32" t="n" s="11">
-        <v>0.06597222222222222</v>
-      </c>
-      <c r="O32" t="n" s="11">
+      <c r="I32" t="n" s="12">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="J32" t="n" s="10">
+        <v>43.0</v>
+      </c>
+      <c r="O32" t="n" s="12">
         <v>0.9138888888888889</v>
       </c>
-      <c r="P32" t="n" s="11">
+      <c r="P32" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R32" t="n" s="11">
+      <c r="R32" t="n" s="12">
         <v>0.91875</v>
       </c>
-      <c r="S32" t="n" s="11">
+      <c r="S32" t="n" s="12">
         <v>0.9465277777777777</v>
       </c>
     </row>
@@ -1478,22 +1570,25 @@
       <c r="G33" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H33" t="n" s="10">
+      <c r="H33" t="n" s="11">
         <v>0.01597222222222222</v>
       </c>
-      <c r="I33" t="n" s="11">
-        <v>0.059027777777777776</v>
-      </c>
-      <c r="O33" t="n" s="11">
+      <c r="I33" t="n" s="12">
+        <v>0.0625</v>
+      </c>
+      <c r="J33" t="n" s="10">
+        <v>42.0</v>
+      </c>
+      <c r="O33" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
-      <c r="P33" t="n" s="11">
+      <c r="P33" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R33" t="n" s="11">
+      <c r="R33" t="n" s="12">
         <v>0.90625</v>
       </c>
-      <c r="S33" t="n" s="11">
+      <c r="S33" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -1513,22 +1608,25 @@
       <c r="G34" t="n" s="9">
         <v>9.0</v>
       </c>
-      <c r="H34" t="n" s="10">
+      <c r="H34" t="n" s="11">
         <v>0.011111111111111112</v>
       </c>
-      <c r="I34" t="n" s="11">
-        <v>0.09652777777777778</v>
-      </c>
-      <c r="O34" t="n" s="11">
+      <c r="I34" t="n" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="J34" t="n" s="10">
+        <v>53.0</v>
+      </c>
+      <c r="O34" t="n" s="12">
         <v>0.8951388888888889</v>
       </c>
-      <c r="P34" t="n" s="11">
+      <c r="P34" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
-      <c r="R34" t="n" s="11">
+      <c r="R34" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="S34" t="n" s="11">
+      <c r="S34" t="n" s="12">
         <v>0.9451388888888889</v>
       </c>
     </row>
@@ -1548,22 +1646,25 @@
       <c r="G35" t="n" s="9">
         <v>9.0</v>
       </c>
-      <c r="H35" t="n" s="10">
+      <c r="H35" t="n" s="11">
         <v>0.009722222222222222</v>
       </c>
-      <c r="I35" t="n" s="11">
-        <v>0.0875</v>
-      </c>
-      <c r="O35" t="n" s="11">
+      <c r="I35" t="n" s="12">
+        <v>0.09097222222222222</v>
+      </c>
+      <c r="J35" t="n" s="10">
+        <v>63.0</v>
+      </c>
+      <c r="O35" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
-      <c r="P35" t="n" s="11">
+      <c r="P35" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R35" t="n" s="11">
+      <c r="R35" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
-      <c r="S35" t="n" s="11">
+      <c r="S35" t="n" s="12">
         <v>0.9465277777777777</v>
       </c>
     </row>
@@ -1583,22 +1684,25 @@
       <c r="G36" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H36" t="n" s="10">
+      <c r="H36" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I36" t="n" s="11">
-        <v>0.03819444444444445</v>
-      </c>
-      <c r="O36" t="n" s="11">
+      <c r="I36" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J36" t="n" s="10">
+        <v>15.0</v>
+      </c>
+      <c r="O36" t="n" s="12">
         <v>0.8541666666666666</v>
       </c>
-      <c r="P36" t="n" s="11">
+      <c r="P36" t="n" s="12">
         <v>0.8958333333333334</v>
       </c>
-      <c r="R36" t="n" s="11">
+      <c r="R36" t="n" s="12">
         <v>0.875</v>
       </c>
-      <c r="S36" t="n" s="11">
+      <c r="S36" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
     </row>
@@ -1618,22 +1722,25 @@
       <c r="G37" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H37" t="n" s="10">
+      <c r="H37" t="n" s="11">
         <v>0.006944444444444444</v>
       </c>
-      <c r="I37" t="n" s="11">
-        <v>0.03819444444444445</v>
-      </c>
-      <c r="O37" t="n" s="11">
+      <c r="I37" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J37" t="n" s="10">
+        <v>87.0</v>
+      </c>
+      <c r="O37" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P37" t="n" s="11">
+      <c r="P37" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R37" t="n" s="11">
+      <c r="R37" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="S37" t="n" s="11">
+      <c r="S37" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -1653,22 +1760,25 @@
       <c r="G38" t="n" s="9">
         <v>10.0</v>
       </c>
-      <c r="H38" t="n" s="10">
+      <c r="H38" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I38" t="n" s="11">
-        <v>0.10069444444444445</v>
-      </c>
-      <c r="O38" t="n" s="11">
+      <c r="I38" t="n" s="12">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="J38" t="n" s="10">
+        <v>63.0</v>
+      </c>
+      <c r="O38" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P38" t="n" s="11">
+      <c r="P38" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R38" t="n" s="11">
+      <c r="R38" t="n" s="12">
         <v>0.9368055555555556</v>
       </c>
-      <c r="S38" t="n" s="11">
+      <c r="S38" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
     </row>
@@ -1688,22 +1798,25 @@
       <c r="G39" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H39" t="n" s="10">
+      <c r="H39" t="n" s="11">
         <v>0.005555555555555556</v>
       </c>
-      <c r="I39" t="n" s="11">
+      <c r="I39" t="n" s="12">
         <v>0.03333333333333333</v>
       </c>
-      <c r="O39" t="n" s="11">
+      <c r="J39" t="n" s="10">
+        <v>105.0</v>
+      </c>
+      <c r="O39" t="n" s="12">
         <v>0.925</v>
       </c>
-      <c r="P39" t="n" s="11">
+      <c r="P39" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R39" t="s" s="11">
+      <c r="R39" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="S39" t="s" s="11">
+      <c r="S39" t="s" s="12">
         <v>20</v>
       </c>
     </row>
@@ -1723,22 +1836,25 @@
       <c r="G40" t="n" s="9">
         <v>10.0</v>
       </c>
-      <c r="H40" t="n" s="10">
+      <c r="H40" t="n" s="11">
         <v>0.006944444444444444</v>
       </c>
-      <c r="I40" t="n" s="11">
-        <v>0.06597222222222222</v>
-      </c>
-      <c r="O40" t="n" s="11">
+      <c r="I40" t="n" s="12">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="J40" t="n" s="10">
+        <v>90.0</v>
+      </c>
+      <c r="O40" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P40" t="n" s="11">
+      <c r="P40" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R40" t="n" s="11">
+      <c r="R40" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
-      <c r="S40" t="n" s="11">
+      <c r="S40" t="n" s="12">
         <v>0.9381944444444444</v>
       </c>
     </row>
@@ -1758,22 +1874,25 @@
       <c r="G41" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H41" t="n" s="10">
+      <c r="H41" t="n" s="11">
         <v>0.02013888888888889</v>
       </c>
-      <c r="I41" t="n" s="11">
-        <v>0.05694444444444444</v>
-      </c>
-      <c r="O41" t="n" s="11">
+      <c r="I41" t="n" s="12">
+        <v>0.06041666666666667</v>
+      </c>
+      <c r="J41" t="n" s="10">
+        <v>30.0</v>
+      </c>
+      <c r="O41" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
-      <c r="P41" t="n" s="11">
+      <c r="P41" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="R41" t="n" s="11">
+      <c r="R41" t="n" s="12">
         <v>0.9180555555555555</v>
       </c>
-      <c r="S41" t="n" s="11">
+      <c r="S41" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
     </row>
@@ -1793,22 +1912,25 @@
       <c r="G42" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H42" t="n" s="10">
+      <c r="H42" t="n" s="11">
         <v>0.027777777777777776</v>
       </c>
-      <c r="I42" t="n" s="11">
-        <v>0.0798611111111111</v>
-      </c>
-      <c r="O42" t="n" s="11">
+      <c r="I42" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J42" t="n" s="10">
+        <v>23.0</v>
+      </c>
+      <c r="O42" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
-      <c r="P42" t="n" s="11">
+      <c r="P42" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R42" t="n" s="11">
+      <c r="R42" t="n" s="12">
         <v>0.9222222222222223</v>
       </c>
-      <c r="S42" t="n" s="11">
+      <c r="S42" t="n" s="12">
         <v>0.95</v>
       </c>
     </row>
@@ -1828,22 +1950,25 @@
       <c r="G43" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H43" t="n" s="10">
+      <c r="H43" t="n" s="11">
         <v>0.0125</v>
       </c>
-      <c r="I43" t="n" s="11">
-        <v>0.04861111111111111</v>
-      </c>
-      <c r="O43" t="n" s="11">
+      <c r="I43" t="n" s="12">
+        <v>0.05138888888888889</v>
+      </c>
+      <c r="J43" t="n" s="10">
+        <v>48.0</v>
+      </c>
+      <c r="O43" t="n" s="12">
         <v>0.9208333333333333</v>
       </c>
-      <c r="P43" t="n" s="11">
+      <c r="P43" t="n" s="12">
         <v>0.9465277777777777</v>
       </c>
-      <c r="R43" t="n" s="11">
+      <c r="R43" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="S43" t="n" s="11">
+      <c r="S43" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
     </row>
@@ -1863,22 +1988,25 @@
       <c r="G44" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H44" t="n" s="10">
+      <c r="H44" t="n" s="11">
         <v>0.013888888888888888</v>
       </c>
-      <c r="I44" t="n" s="11">
-        <v>0.03819444444444445</v>
-      </c>
-      <c r="O44" t="n" s="11">
+      <c r="I44" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J44" t="n" s="10">
+        <v>42.0</v>
+      </c>
+      <c r="O44" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
-      <c r="P44" t="n" s="11">
+      <c r="P44" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
-      <c r="R44" t="n" s="11">
+      <c r="R44" t="n" s="12">
         <v>0.90625</v>
       </c>
-      <c r="S44" t="n" s="11">
+      <c r="S44" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
     </row>
@@ -1898,22 +2026,25 @@
       <c r="G45" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H45" t="n" s="10">
+      <c r="H45" t="n" s="11">
         <v>0.015277777777777777</v>
       </c>
-      <c r="I45" t="n" s="11">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="O45" t="n" s="11">
+      <c r="I45" t="n" s="12">
+        <v>0.03125</v>
+      </c>
+      <c r="J45" t="n" s="10">
+        <v>39.0</v>
+      </c>
+      <c r="O45" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P45" t="n" s="11">
+      <c r="P45" t="n" s="12">
         <v>0.9319444444444445</v>
       </c>
-      <c r="R45" t="n" s="11">
+      <c r="R45" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="S45" t="n" s="11">
+      <c r="S45" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -1933,22 +2064,25 @@
       <c r="G46" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H46" t="n" s="10">
+      <c r="H46" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I46" t="n" s="11">
-        <v>0.03819444444444445</v>
-      </c>
-      <c r="O46" t="n" s="11">
+      <c r="I46" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J46" t="n" s="10">
+        <v>14.0</v>
+      </c>
+      <c r="O46" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="P46" t="n" s="11">
+      <c r="P46" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R46" t="n" s="11">
+      <c r="R46" t="n" s="12">
         <v>0.8819444444444444</v>
       </c>
-      <c r="S46" t="n" s="11">
+      <c r="S46" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
     </row>
@@ -1968,22 +2102,25 @@
       <c r="G47" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H47" t="n" s="10">
+      <c r="H47" t="n" s="11">
         <v>0.020833333333333332</v>
       </c>
-      <c r="I47" t="n" s="11">
-        <v>0.03819444444444445</v>
-      </c>
-      <c r="O47" t="n" s="11">
+      <c r="I47" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J47" t="n" s="10">
+        <v>29.0</v>
+      </c>
+      <c r="O47" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="P47" t="n" s="11">
+      <c r="P47" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
-      <c r="R47" t="n" s="11">
+      <c r="R47" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S47" t="n" s="11">
+      <c r="S47" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
     </row>
@@ -2003,22 +2140,25 @@
       <c r="G48" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H48" t="n" s="10">
+      <c r="H48" t="n" s="11">
         <v>0.011111111111111112</v>
       </c>
-      <c r="I48" t="n" s="11">
-        <v>0.08541666666666667</v>
-      </c>
-      <c r="O48" t="n" s="11">
+      <c r="I48" t="n" s="12">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="J48" t="n" s="10">
+        <v>54.0</v>
+      </c>
+      <c r="O48" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="P48" t="n" s="11">
+      <c r="P48" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
-      <c r="R48" t="n" s="11">
+      <c r="R48" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
-      <c r="S48" t="n" s="11">
+      <c r="S48" t="n" s="12">
         <v>0.9465277777777777</v>
       </c>
     </row>
@@ -2038,22 +2178,25 @@
       <c r="G49" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H49" t="n" s="10">
+      <c r="H49" t="n" s="11">
         <v>0.017361111111111112</v>
       </c>
-      <c r="I49" t="n" s="11">
-        <v>0.06597222222222222</v>
-      </c>
-      <c r="O49" t="n" s="11">
+      <c r="I49" t="n" s="12">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="J49" t="n" s="10">
+        <v>34.0</v>
+      </c>
+      <c r="O49" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="P49" t="n" s="11">
+      <c r="P49" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R49" t="n" s="11">
+      <c r="R49" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
-      <c r="S49" t="n" s="11">
+      <c r="S49" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -2073,22 +2216,25 @@
       <c r="G50" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H50" t="n" s="10">
+      <c r="H50" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I50" t="n" s="11">
-        <v>0.06111111111111111</v>
-      </c>
-      <c r="O50" t="n" s="11">
+      <c r="I50" t="n" s="12">
+        <v>0.06458333333333334</v>
+      </c>
+      <c r="J50" t="n" s="10">
+        <v>55.0</v>
+      </c>
+      <c r="O50" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
-      <c r="P50" t="n" s="11">
+      <c r="P50" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
-      <c r="R50" t="n" s="11">
+      <c r="R50" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
-      <c r="S50" t="n" s="11">
+      <c r="S50" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -2108,22 +2254,25 @@
       <c r="G51" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H51" t="n" s="10">
+      <c r="H51" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I51" t="n" s="11">
-        <v>0.0798611111111111</v>
-      </c>
-      <c r="O51" t="n" s="11">
+      <c r="I51" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J51" t="n" s="10">
+        <v>59.0</v>
+      </c>
+      <c r="O51" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="P51" t="n" s="11">
+      <c r="P51" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R51" t="n" s="11">
+      <c r="R51" t="n" s="12">
         <v>0.9229166666666667</v>
       </c>
-      <c r="S51" t="n" s="11">
+      <c r="S51" t="n" s="12">
         <v>0.94375</v>
       </c>
     </row>
@@ -2143,22 +2292,25 @@
       <c r="G52" t="n" s="9">
         <v>13.0</v>
       </c>
-      <c r="H52" t="n" s="10">
+      <c r="H52" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I52" t="n" s="11">
-        <v>0.13194444444444445</v>
-      </c>
-      <c r="O52" t="n" s="11">
+      <c r="I52" t="n" s="12">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="J52" t="n" s="10">
+        <v>59.0</v>
+      </c>
+      <c r="O52" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
-      <c r="P52" t="n" s="11">
+      <c r="P52" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R52" t="n" s="11">
+      <c r="R52" t="n" s="12">
         <v>0.9326388888888889</v>
       </c>
-      <c r="S52" t="n" s="11">
+      <c r="S52" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
     </row>
@@ -2178,22 +2330,25 @@
       <c r="G53" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H53" t="n" s="10">
+      <c r="H53" t="n" s="11">
         <v>0.013888888888888888</v>
       </c>
-      <c r="I53" t="n" s="11">
-        <v>0.03819444444444445</v>
-      </c>
-      <c r="O53" t="n" s="11">
+      <c r="I53" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J53" t="n" s="10">
+        <v>43.0</v>
+      </c>
+      <c r="O53" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
-      <c r="P53" t="n" s="11">
+      <c r="P53" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="R53" t="n" s="11">
+      <c r="R53" t="n" s="12">
         <v>0.9208333333333333</v>
       </c>
-      <c r="S53" t="n" s="11">
+      <c r="S53" t="n" s="12">
         <v>0.9486111111111111</v>
       </c>
     </row>
@@ -2213,22 +2368,25 @@
       <c r="G54" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H54" t="n" s="10">
+      <c r="H54" t="n" s="11">
         <v>0.01597222222222222</v>
       </c>
-      <c r="I54" t="n" s="11">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="O54" t="n" s="11">
+      <c r="I54" t="n" s="12">
+        <v>0.04791666666666667</v>
+      </c>
+      <c r="J54" t="n" s="10">
+        <v>37.0</v>
+      </c>
+      <c r="O54" t="n" s="12">
         <v>0.9194444444444444</v>
       </c>
-      <c r="P54" t="n" s="11">
+      <c r="P54" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
-      <c r="R54" t="n" s="11">
+      <c r="R54" t="n" s="12">
         <v>0.9277777777777778</v>
       </c>
-      <c r="S54" t="n" s="11">
+      <c r="S54" t="n" s="12">
         <v>0.94375</v>
       </c>
     </row>
@@ -2248,22 +2406,25 @@
       <c r="G55" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H55" t="n" s="10">
+      <c r="H55" t="n" s="11">
         <v>0.01597222222222222</v>
       </c>
-      <c r="I55" t="n" s="11">
-        <v>0.09236111111111112</v>
-      </c>
-      <c r="O55" t="n" s="11">
+      <c r="I55" t="n" s="12">
+        <v>0.09583333333333334</v>
+      </c>
+      <c r="J55" t="n" s="10">
+        <v>37.0</v>
+      </c>
+      <c r="O55" t="n" s="12">
         <v>0.9020833333333333</v>
       </c>
-      <c r="P55" t="n" s="11">
+      <c r="P55" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="R55" t="n" s="11">
+      <c r="R55" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
-      <c r="S55" t="n" s="11">
+      <c r="S55" t="n" s="12">
         <v>0.9493055555555555</v>
       </c>
     </row>
@@ -2283,22 +2444,25 @@
       <c r="G56" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H56" t="n" s="10">
+      <c r="H56" t="n" s="11">
         <v>0.0125</v>
       </c>
-      <c r="I56" t="n" s="11">
-        <v>0.059027777777777776</v>
-      </c>
-      <c r="O56" t="n" s="11">
+      <c r="I56" t="n" s="12">
+        <v>0.0625</v>
+      </c>
+      <c r="J56" t="n" s="10">
+        <v>49.0</v>
+      </c>
+      <c r="O56" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="P56" t="n" s="11">
+      <c r="P56" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="R56" t="n" s="11">
+      <c r="R56" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
-      <c r="S56" t="n" s="11">
+      <c r="S56" t="n" s="12">
         <v>0.9493055555555555</v>
       </c>
     </row>
@@ -2318,22 +2482,25 @@
       <c r="G57" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H57" t="n" s="10">
+      <c r="H57" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I57" t="n" s="11">
-        <v>0.03819444444444445</v>
-      </c>
-      <c r="O57" t="n" s="11">
+      <c r="I57" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J57" t="n" s="10">
+        <v>14.0</v>
+      </c>
+      <c r="O57" t="n" s="12">
         <v>0.9131944444444444</v>
       </c>
-      <c r="P57" t="n" s="11">
+      <c r="P57" t="n" s="12">
         <v>0.9548611111111112</v>
       </c>
-      <c r="R57" t="n" s="11">
+      <c r="R57" t="n" s="12">
         <v>0.8923611111111112</v>
       </c>
-      <c r="S57" t="n" s="11">
+      <c r="S57" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
     </row>
@@ -2353,22 +2520,25 @@
       <c r="G58" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H58" t="n" s="10">
+      <c r="H58" t="n" s="11">
         <v>0.017361111111111112</v>
       </c>
-      <c r="I58" t="n" s="11">
-        <v>0.06597222222222222</v>
-      </c>
-      <c r="O58" t="n" s="11">
+      <c r="I58" t="n" s="12">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="J58" t="n" s="10">
+        <v>32.0</v>
+      </c>
+      <c r="O58" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="P58" t="n" s="11">
+      <c r="P58" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R58" t="n" s="11">
+      <c r="R58" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="S58" t="n" s="11">
+      <c r="S58" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -2388,22 +2558,25 @@
       <c r="G59" t="n" s="9">
         <v>7.0</v>
       </c>
-      <c r="H59" t="n" s="10">
+      <c r="H59" t="n" s="11">
         <v>0.009722222222222222</v>
       </c>
-      <c r="I59" t="n" s="11">
-        <v>0.06458333333333334</v>
-      </c>
-      <c r="O59" t="n" s="11">
+      <c r="I59" t="n" s="12">
+        <v>0.06805555555555555</v>
+      </c>
+      <c r="J59" t="n" s="10">
+        <v>61.0</v>
+      </c>
+      <c r="O59" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
-      <c r="P59" t="n" s="11">
+      <c r="P59" t="n" s="12">
         <v>0.94375</v>
       </c>
-      <c r="R59" t="n" s="11">
+      <c r="R59" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
-      <c r="S59" t="n" s="11">
+      <c r="S59" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
     </row>
@@ -2423,22 +2596,25 @@
       <c r="G60" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H60" t="n" s="10">
+      <c r="H60" t="n" s="11">
         <v>0.0125</v>
       </c>
-      <c r="I60" t="n" s="11">
-        <v>0.07152777777777777</v>
-      </c>
-      <c r="O60" t="n" s="11">
+      <c r="I60" t="n" s="12">
+        <v>0.075</v>
+      </c>
+      <c r="J60" t="n" s="10">
+        <v>51.0</v>
+      </c>
+      <c r="O60" t="n" s="12">
         <v>0.9083333333333333</v>
       </c>
-      <c r="P60" t="n" s="11">
+      <c r="P60" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
-      <c r="R60" t="n" s="11">
+      <c r="R60" t="n" s="12">
         <v>0.9208333333333333</v>
       </c>
-      <c r="S60" t="n" s="11">
+      <c r="S60" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
     </row>
@@ -2458,22 +2634,25 @@
       <c r="G61" t="n" s="9">
         <v>7.0</v>
       </c>
-      <c r="H61" t="n" s="10">
+      <c r="H61" t="n" s="11">
         <v>0.011805555555555555</v>
       </c>
-      <c r="I61" t="n" s="11">
-        <v>0.07916666666666666</v>
-      </c>
-      <c r="O61" t="n" s="11">
+      <c r="I61" t="n" s="12">
+        <v>0.08263888888888889</v>
+      </c>
+      <c r="J61" t="n" s="10">
+        <v>52.0</v>
+      </c>
+      <c r="O61" t="n" s="12">
         <v>0.9055555555555556</v>
       </c>
-      <c r="P61" t="n" s="11">
+      <c r="P61" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="R61" t="n" s="11">
+      <c r="R61" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
-      <c r="S61" t="n" s="11">
+      <c r="S61" t="n" s="12">
         <v>0.9465277777777777</v>
       </c>
     </row>
@@ -2493,22 +2672,25 @@
       <c r="G62" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H62" t="n" s="10">
+      <c r="H62" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I62" t="n" s="11">
-        <v>0.03819444444444445</v>
-      </c>
-      <c r="O62" t="n" s="11">
+      <c r="I62" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J62" t="n" s="10">
+        <v>14.0</v>
+      </c>
+      <c r="O62" t="n" s="12">
         <v>0.8958333333333334</v>
       </c>
-      <c r="P62" t="n" s="11">
+      <c r="P62" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R62" t="n" s="11">
+      <c r="R62" t="n" s="12">
         <v>0.875</v>
       </c>
-      <c r="S62" t="n" s="11">
+      <c r="S62" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
     </row>
@@ -2528,22 +2710,25 @@
       <c r="G63" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H63" t="n" s="10">
+      <c r="H63" t="n" s="11">
         <v>0.016666666666666666</v>
       </c>
-      <c r="I63" t="n" s="11">
-        <v>0.029861111111111113</v>
-      </c>
-      <c r="O63" t="n" s="11">
+      <c r="I63" t="n" s="12">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="J63" t="n" s="10">
+        <v>35.0</v>
+      </c>
+      <c r="O63" t="n" s="12">
         <v>0.9125</v>
       </c>
-      <c r="P63" t="n" s="11">
+      <c r="P63" t="n" s="12">
         <v>0.9291666666666667</v>
       </c>
-      <c r="R63" t="n" s="11">
+      <c r="R63" t="n" s="12">
         <v>0.9125</v>
       </c>
-      <c r="S63" t="n" s="11">
+      <c r="S63" t="n" s="12">
         <v>0.9291666666666667</v>
       </c>
     </row>
@@ -2563,22 +2748,25 @@
       <c r="G64" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H64" t="n" s="10">
+      <c r="H64" t="n" s="11">
         <v>0.03125</v>
       </c>
-      <c r="I64" t="n" s="11">
-        <v>0.027777777777777776</v>
-      </c>
-      <c r="O64" t="n" s="11">
+      <c r="I64" t="n" s="12">
+        <v>0.03125</v>
+      </c>
+      <c r="J64" t="n" s="10">
+        <v>18.0</v>
+      </c>
+      <c r="O64" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
-      <c r="P64" t="n" s="11">
+      <c r="P64" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="R64" t="n" s="11">
+      <c r="R64" t="n" s="12">
         <v>0.8701388888888889</v>
       </c>
-      <c r="S64" t="n" s="11">
+      <c r="S64" t="n" s="12">
         <v>0.9013888888888889</v>
       </c>
     </row>
@@ -2598,22 +2786,25 @@
       <c r="G65" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H65" t="n" s="10">
+      <c r="H65" t="n" s="11">
         <v>0.011805555555555555</v>
       </c>
-      <c r="I65" t="n" s="11">
-        <v>0.03194444444444444</v>
-      </c>
-      <c r="O65" t="n" s="11">
+      <c r="I65" t="n" s="12">
+        <v>0.035416666666666666</v>
+      </c>
+      <c r="J65" t="n" s="10">
+        <v>50.0</v>
+      </c>
+      <c r="O65" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
-      <c r="P65" t="n" s="11">
+      <c r="P65" t="n" s="12">
         <v>0.9451388888888889</v>
       </c>
-      <c r="R65" t="n" s="11">
+      <c r="R65" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
-      <c r="S65" t="n" s="11">
+      <c r="S65" t="n" s="12">
         <v>0.9388888888888889</v>
       </c>
     </row>
@@ -2633,22 +2824,25 @@
       <c r="G66" t="n" s="9">
         <v>7.0</v>
       </c>
-      <c r="H66" t="n" s="10">
+      <c r="H66" t="n" s="11">
         <v>0.0125</v>
       </c>
-      <c r="I66" t="n" s="11">
-        <v>0.08125</v>
-      </c>
-      <c r="O66" t="n" s="11">
+      <c r="I66" t="n" s="12">
+        <v>0.08472222222222223</v>
+      </c>
+      <c r="J66" t="n" s="10">
+        <v>51.0</v>
+      </c>
+      <c r="O66" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="P66" t="n" s="11">
+      <c r="P66" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
-      <c r="R66" t="n" s="11">
+      <c r="R66" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
-      <c r="S66" t="n" s="11">
+      <c r="S66" t="n" s="12">
         <v>0.9381944444444444</v>
       </c>
     </row>
@@ -2668,22 +2862,25 @@
       <c r="G67" t="n" s="9">
         <v>9.0</v>
       </c>
-      <c r="H67" t="n" s="10">
+      <c r="H67" t="n" s="11">
         <v>0.009722222222222222</v>
       </c>
-      <c r="I67" t="n" s="11">
-        <v>0.08402777777777778</v>
-      </c>
-      <c r="O67" t="n" s="11">
+      <c r="I67" t="n" s="12">
+        <v>0.0875</v>
+      </c>
+      <c r="J67" t="n" s="10">
+        <v>61.0</v>
+      </c>
+      <c r="O67" t="n" s="12">
         <v>0.9138888888888889</v>
       </c>
-      <c r="P67" t="n" s="11">
+      <c r="P67" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="R67" t="n" s="11">
+      <c r="R67" t="n" s="12">
         <v>0.9201388888888888</v>
       </c>
-      <c r="S67" t="n" s="11">
+      <c r="S67" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
     </row>
@@ -2703,22 +2900,25 @@
       <c r="G68" t="n" s="9">
         <v>6.0</v>
       </c>
-      <c r="H68" t="n" s="10">
+      <c r="H68" t="n" s="11">
         <v>0.011111111111111112</v>
       </c>
-      <c r="I68" t="n" s="11">
-        <v>0.06111111111111111</v>
-      </c>
-      <c r="O68" t="n" s="11">
+      <c r="I68" t="n" s="12">
+        <v>0.06458333333333334</v>
+      </c>
+      <c r="J68" t="n" s="10">
+        <v>60.0</v>
+      </c>
+      <c r="O68" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P68" t="n" s="11">
+      <c r="P68" t="n" s="12">
         <v>0.9381944444444444</v>
       </c>
-      <c r="R68" t="n" s="11">
+      <c r="R68" t="n" s="12">
         <v>0.9277777777777778</v>
       </c>
-      <c r="S68" t="n" s="11">
+      <c r="S68" t="n" s="12">
         <v>0.9381944444444444</v>
       </c>
     </row>
@@ -2738,22 +2938,25 @@
       <c r="G69" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H69" t="n" s="10">
+      <c r="H69" t="n" s="11">
         <v>0.009722222222222222</v>
       </c>
-      <c r="I69" t="n" s="11">
-        <v>0.025694444444444443</v>
-      </c>
-      <c r="O69" t="n" s="11">
+      <c r="I69" t="n" s="12">
+        <v>0.029166666666666667</v>
+      </c>
+      <c r="J69" t="n" s="10">
+        <v>65.0</v>
+      </c>
+      <c r="O69" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
-      <c r="P69" t="n" s="11">
+      <c r="P69" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="R69" t="n" s="11">
+      <c r="R69" t="n" s="12">
         <v>0.9284722222222223</v>
       </c>
-      <c r="S69" t="n" s="11">
+      <c r="S69" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
     </row>
@@ -2773,22 +2976,25 @@
       <c r="G70" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H70" t="n" s="10">
+      <c r="H70" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I70" t="n" s="11">
-        <v>0.03819444444444445</v>
-      </c>
-      <c r="O70" t="n" s="11">
+      <c r="I70" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J70" t="n" s="10">
+        <v>15.0</v>
+      </c>
+      <c r="O70" t="n" s="12">
         <v>0.8541666666666666</v>
       </c>
-      <c r="P70" t="n" s="11">
+      <c r="P70" t="n" s="12">
         <v>0.8958333333333334</v>
       </c>
-      <c r="R70" t="n" s="11">
+      <c r="R70" t="n" s="12">
         <v>0.875</v>
       </c>
-      <c r="S70" t="n" s="11">
+      <c r="S70" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
     </row>
@@ -2808,22 +3014,25 @@
       <c r="G71" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H71" t="n" s="10">
+      <c r="H71" t="n" s="11">
         <v>0.020833333333333332</v>
       </c>
-      <c r="I71" t="n" s="11">
-        <v>0.03819444444444445</v>
-      </c>
-      <c r="O71" t="n" s="11">
+      <c r="I71" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J71" t="n" s="10">
+        <v>31.0</v>
+      </c>
+      <c r="O71" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="P71" t="n" s="11">
+      <c r="P71" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
-      <c r="R71" t="n" s="11">
+      <c r="R71" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S71" t="n" s="11">
+      <c r="S71" t="n" s="12">
         <v>0.9513888888888888</v>
       </c>
     </row>
@@ -2843,22 +3052,25 @@
       <c r="G72" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H72" t="n" s="10">
+      <c r="H72" t="n" s="11">
         <v>0.034722222222222224</v>
       </c>
-      <c r="I72" t="n" s="11">
-        <v>0.03125</v>
-      </c>
-      <c r="O72" t="n" s="11">
+      <c r="I72" t="n" s="12">
+        <v>0.034722222222222224</v>
+      </c>
+      <c r="J72" t="n" s="10">
+        <v>18.0</v>
+      </c>
+      <c r="O72" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
-      <c r="P72" t="n" s="11">
+      <c r="P72" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R72" t="n" s="11">
+      <c r="R72" t="n" s="12">
         <v>0.8923611111111112</v>
       </c>
-      <c r="S72" t="n" s="11">
+      <c r="S72" t="n" s="12">
         <v>0.9270833333333334</v>
       </c>
     </row>
@@ -2878,22 +3090,25 @@
       <c r="G73" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H73" t="n" s="10">
+      <c r="H73" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I73" t="n" s="11">
-        <v>0.03819444444444445</v>
-      </c>
-      <c r="O73" t="n" s="11">
+      <c r="I73" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J73" t="n" s="10">
+        <v>55.0</v>
+      </c>
+      <c r="O73" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P73" t="n" s="11">
+      <c r="P73" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R73" t="n" s="11">
+      <c r="R73" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="S73" t="n" s="11">
+      <c r="S73" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -2913,22 +3128,25 @@
       <c r="G74" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H74" t="n" s="10">
+      <c r="H74" t="n" s="11">
         <v>0.011111111111111112</v>
       </c>
-      <c r="I74" t="n" s="11">
-        <v>0.01875</v>
-      </c>
-      <c r="O74" t="n" s="11">
+      <c r="I74" t="n" s="12">
+        <v>0.022222222222222223</v>
+      </c>
+      <c r="J74" t="n" s="10">
+        <v>57.0</v>
+      </c>
+      <c r="O74" t="n" s="12">
         <v>0.9361111111111111</v>
       </c>
-      <c r="P74" t="n" s="11">
+      <c r="P74" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
-      <c r="R74" t="n" s="11">
+      <c r="R74" t="n" s="12">
         <v>0.9361111111111111</v>
       </c>
-      <c r="S74" t="n" s="11">
+      <c r="S74" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
     </row>
@@ -2948,22 +3166,25 @@
       <c r="G75" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H75" t="n" s="10">
+      <c r="H75" t="n" s="11">
         <v>0.04861111111111111</v>
       </c>
-      <c r="I75" t="n" s="11">
-        <v>0.04513888888888889</v>
-      </c>
-      <c r="O75" t="n" s="11">
+      <c r="I75" t="n" s="12">
+        <v>0.04861111111111111</v>
+      </c>
+      <c r="J75" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="O75" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
-      <c r="P75" t="n" s="11">
+      <c r="P75" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="R75" t="n" s="11">
+      <c r="R75" t="n" s="12">
         <v>0.8631944444444445</v>
       </c>
-      <c r="S75" t="n" s="11">
+      <c r="S75" t="n" s="12">
         <v>0.9118055555555555</v>
       </c>
     </row>
@@ -2983,22 +3204,25 @@
       <c r="G76" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H76" t="n" s="10">
+      <c r="H76" t="n" s="11">
         <v>0.0625</v>
       </c>
-      <c r="I76" t="n" s="11">
-        <v>0.059027777777777776</v>
-      </c>
-      <c r="O76" t="n" s="11">
+      <c r="I76" t="n" s="12">
+        <v>0.0625</v>
+      </c>
+      <c r="J76" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="O76" t="n" s="12">
         <v>0.8118055555555556</v>
       </c>
-      <c r="P76" t="n" s="11">
+      <c r="P76" t="n" s="12">
         <v>0.8743055555555556</v>
       </c>
-      <c r="R76" t="n" s="11">
+      <c r="R76" t="n" s="12">
         <v>0.7805555555555556</v>
       </c>
-      <c r="S76" t="n" s="11">
+      <c r="S76" t="n" s="12">
         <v>0.8430555555555556</v>
       </c>
     </row>
@@ -3018,22 +3242,25 @@
       <c r="G77" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H77" t="n" s="10">
+      <c r="H77" t="n" s="11">
         <v>0.041666666666666664</v>
       </c>
-      <c r="I77" t="n" s="11">
-        <v>0.0798611111111111</v>
-      </c>
-      <c r="O77" t="n" s="11">
+      <c r="I77" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J77" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="O77" t="n" s="12">
         <v>0.84375</v>
       </c>
-      <c r="P77" t="n" s="11">
+      <c r="P77" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
-      <c r="R77" t="n" s="11">
+      <c r="R77" t="n" s="12">
         <v>0.8020833333333334</v>
       </c>
-      <c r="S77" t="n" s="11">
+      <c r="S77" t="n" s="12">
         <v>0.84375</v>
       </c>
     </row>
@@ -3053,22 +3280,25 @@
       <c r="G78" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H78" t="n" s="10">
+      <c r="H78" t="n" s="11">
         <v>0.01875</v>
       </c>
-      <c r="I78" t="n" s="11">
-        <v>0.07152777777777777</v>
-      </c>
-      <c r="O78" t="n" s="11">
+      <c r="I78" t="n" s="12">
+        <v>0.075</v>
+      </c>
+      <c r="J78" t="n" s="10">
+        <v>32.0</v>
+      </c>
+      <c r="O78" t="n" s="12">
         <v>0.9041666666666667</v>
       </c>
-      <c r="P78" t="n" s="11">
+      <c r="P78" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R78" t="n" s="11">
+      <c r="R78" t="n" s="12">
         <v>0.9090277777777778</v>
       </c>
-      <c r="S78" t="n" s="11">
+      <c r="S78" t="n" s="12">
         <v>0.9465277777777777</v>
       </c>
     </row>
@@ -3088,22 +3318,25 @@
       <c r="G79" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H79" t="n" s="10">
+      <c r="H79" t="n" s="11">
         <v>0.011111111111111112</v>
       </c>
-      <c r="I79" t="n" s="11">
-        <v>0.08541666666666667</v>
-      </c>
-      <c r="O79" t="n" s="11">
+      <c r="I79" t="n" s="12">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="J79" t="n" s="10">
+        <v>52.0</v>
+      </c>
+      <c r="O79" t="n" s="12">
         <v>0.8951388888888889</v>
       </c>
-      <c r="P79" t="n" s="11">
+      <c r="P79" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
-      <c r="R79" t="n" s="11">
+      <c r="R79" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
-      <c r="S79" t="n" s="11">
+      <c r="S79" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
     </row>
@@ -3123,22 +3356,25 @@
       <c r="G80" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H80" t="n" s="10">
+      <c r="H80" t="n" s="11">
         <v>0.014583333333333334</v>
       </c>
-      <c r="I80" t="n" s="11">
+      <c r="I80" t="n" s="12">
         <v>0.04375</v>
       </c>
-      <c r="O80" t="n" s="11">
+      <c r="J80" t="n" s="10">
+        <v>43.0</v>
+      </c>
+      <c r="O80" t="n" s="12">
         <v>0.9083333333333333</v>
       </c>
-      <c r="P80" t="n" s="11">
+      <c r="P80" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R80" t="s" s="11">
+      <c r="R80" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="S80" t="s" s="11">
+      <c r="S80" t="s" s="12">
         <v>20</v>
       </c>
     </row>
@@ -3158,22 +3394,25 @@
       <c r="G81" t="n" s="9">
         <v>10.0</v>
       </c>
-      <c r="H81" t="n" s="10">
+      <c r="H81" t="n" s="11">
         <v>0.008333333333333333</v>
       </c>
-      <c r="I81" t="n" s="11">
-        <v>0.08263888888888889</v>
-      </c>
-      <c r="O81" t="n" s="11">
+      <c r="I81" t="n" s="12">
+        <v>0.08680555555555555</v>
+      </c>
+      <c r="J81" t="n" s="10">
+        <v>71.0</v>
+      </c>
+      <c r="O81" t="n" s="12">
         <v>0.9111111111111111</v>
       </c>
-      <c r="P81" t="n" s="11">
+      <c r="P81" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R81" t="n" s="11">
+      <c r="R81" t="n" s="12">
         <v>0.9291666666666667</v>
       </c>
-      <c r="S81" t="n" s="11">
+      <c r="S81" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -3193,22 +3432,25 @@
       <c r="G82" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H82" t="n" s="10">
+      <c r="H82" t="n" s="11">
         <v>0.022916666666666665</v>
       </c>
-      <c r="I82" t="n" s="11">
-        <v>0.04236111111111111</v>
-      </c>
-      <c r="O82" t="n" s="11">
+      <c r="I82" t="n" s="12">
+        <v>0.04583333333333333</v>
+      </c>
+      <c r="J82" t="n" s="10">
+        <v>26.0</v>
+      </c>
+      <c r="O82" t="n" s="12">
         <v>0.9090277777777778</v>
       </c>
-      <c r="P82" t="n" s="11">
+      <c r="P82" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R82" t="n" s="11">
+      <c r="R82" t="n" s="12">
         <v>0.9083333333333333</v>
       </c>
-      <c r="S82" t="n" s="11">
+      <c r="S82" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -3228,22 +3470,25 @@
       <c r="G83" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H83" t="n" s="10">
+      <c r="H83" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I83" t="n" s="11">
-        <v>0.04652777777777778</v>
-      </c>
-      <c r="O83" t="n" s="11">
+      <c r="I83" t="n" s="12">
+        <v>0.052083333333333336</v>
+      </c>
+      <c r="J83" t="n" s="10">
+        <v>58.0</v>
+      </c>
+      <c r="O83" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P83" t="n" s="11">
+      <c r="P83" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
-      <c r="R83" t="n" s="11">
+      <c r="R83" t="n" s="12">
         <v>0.9229166666666667</v>
       </c>
-      <c r="S83" t="n" s="11">
+      <c r="S83" t="n" s="12">
         <v>0.94375</v>
       </c>
     </row>
@@ -3263,22 +3508,25 @@
       <c r="G84" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H84" t="n" s="10">
+      <c r="H84" t="n" s="11">
         <v>0.01875</v>
       </c>
-      <c r="I84" t="n" s="11">
-        <v>0.052083333333333336</v>
-      </c>
-      <c r="O84" t="n" s="11">
+      <c r="I84" t="n" s="12">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="J84" t="n" s="10">
+        <v>33.0</v>
+      </c>
+      <c r="O84" t="n" s="12">
         <v>0.9020833333333333</v>
       </c>
-      <c r="P84" t="n" s="11">
+      <c r="P84" t="n" s="12">
         <v>0.9388888888888889</v>
       </c>
-      <c r="R84" t="n" s="11">
+      <c r="R84" t="n" s="12">
         <v>0.9111111111111111</v>
       </c>
-      <c r="S84" t="n" s="11">
+      <c r="S84" t="n" s="12">
         <v>0.9298611111111111</v>
       </c>
     </row>
@@ -3298,22 +3546,25 @@
       <c r="G85" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H85" t="n" s="10">
+      <c r="H85" t="n" s="11">
         <v>0.0125</v>
       </c>
-      <c r="I85" t="n" s="11">
-        <v>0.059027777777777776</v>
-      </c>
-      <c r="O85" t="n" s="11">
+      <c r="I85" t="n" s="12">
+        <v>0.0625</v>
+      </c>
+      <c r="J85" t="n" s="10">
+        <v>49.0</v>
+      </c>
+      <c r="O85" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P85" t="n" s="11">
+      <c r="P85" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R85" t="n" s="11">
+      <c r="R85" t="n" s="12">
         <v>0.9229166666666667</v>
       </c>
-      <c r="S85" t="n" s="11">
+      <c r="S85" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
     </row>
@@ -3333,22 +3584,25 @@
       <c r="G86" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H86" t="n" s="10">
+      <c r="H86" t="n" s="11">
         <v>0.011805555555555555</v>
       </c>
-      <c r="I86" t="n" s="11">
-        <v>0.04375</v>
-      </c>
-      <c r="O86" t="n" s="11">
+      <c r="I86" t="n" s="12">
+        <v>0.04722222222222222</v>
+      </c>
+      <c r="J86" t="n" s="10">
+        <v>51.0</v>
+      </c>
+      <c r="O86" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
-      <c r="P86" t="n" s="11">
+      <c r="P86" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="R86" t="n" s="11">
+      <c r="R86" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
-      <c r="S86" t="n" s="11">
+      <c r="S86" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
     </row>
@@ -3368,22 +3622,25 @@
       <c r="G87" t="n" s="9">
         <v>7.0</v>
       </c>
-      <c r="H87" t="n" s="10">
+      <c r="H87" t="n" s="11">
         <v>0.013888888888888888</v>
       </c>
-      <c r="I87" t="n" s="11">
-        <v>0.09583333333333334</v>
-      </c>
-      <c r="O87" t="n" s="11">
+      <c r="I87" t="n" s="12">
+        <v>0.09930555555555555</v>
+      </c>
+      <c r="J87" t="n" s="10">
+        <v>40.0</v>
+      </c>
+      <c r="O87" t="n" s="12">
         <v>0.8965277777777778</v>
       </c>
-      <c r="P87" t="n" s="11">
+      <c r="P87" t="n" s="12">
         <v>0.9388888888888889</v>
       </c>
-      <c r="R87" t="n" s="11">
+      <c r="R87" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
-      <c r="S87" t="n" s="11">
+      <c r="S87" t="n" s="12">
         <v>0.9458333333333333</v>
       </c>
     </row>
@@ -3403,22 +3660,25 @@
       <c r="G88" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H88" t="n" s="10">
+      <c r="H88" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I88" t="n" s="11">
-        <v>0.03819444444444445</v>
-      </c>
-      <c r="O88" t="n" s="11">
+      <c r="I88" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J88" t="n" s="10">
+        <v>57.0</v>
+      </c>
+      <c r="O88" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="P88" t="n" s="11">
+      <c r="P88" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R88" t="n" s="11">
+      <c r="R88" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="S88" t="n" s="11">
+      <c r="S88" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
     </row>
@@ -3438,22 +3698,25 @@
       <c r="G89" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H89" t="n" s="10">
+      <c r="H89" t="n" s="11">
         <v>0.01875</v>
       </c>
-      <c r="I89" t="n" s="11">
-        <v>0.09027777777777778</v>
-      </c>
-      <c r="O89" t="n" s="11">
+      <c r="I89" t="n" s="12">
+        <v>0.09375</v>
+      </c>
+      <c r="J89" t="n" s="10">
+        <v>33.0</v>
+      </c>
+      <c r="O89" t="n" s="12">
         <v>0.9159722222222222</v>
       </c>
-      <c r="P89" t="n" s="11">
+      <c r="P89" t="n" s="12">
         <v>0.9534722222222223</v>
       </c>
-      <c r="R89" t="n" s="11">
+      <c r="R89" t="n" s="12">
         <v>0.9069444444444444</v>
       </c>
-      <c r="S89" t="n" s="11">
+      <c r="S89" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
     </row>
@@ -3473,22 +3736,25 @@
       <c r="G90" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H90" t="n" s="10">
+      <c r="H90" t="n" s="11">
         <v>0.018055555555555554</v>
       </c>
-      <c r="I90" t="n" s="11">
-        <v>0.08680555555555555</v>
-      </c>
-      <c r="O90" t="n" s="11">
+      <c r="I90" t="n" s="12">
+        <v>0.09027777777777778</v>
+      </c>
+      <c r="J90" t="n" s="10">
+        <v>34.0</v>
+      </c>
+      <c r="O90" t="n" s="12">
         <v>0.9055555555555556</v>
       </c>
-      <c r="P90" t="n" s="11">
+      <c r="P90" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R90" t="n" s="11">
+      <c r="R90" t="n" s="12">
         <v>0.9145833333333333</v>
       </c>
-      <c r="S90" t="n" s="11">
+      <c r="S90" t="n" s="12">
         <v>0.9506944444444444</v>
       </c>
     </row>
@@ -3508,22 +3774,25 @@
       <c r="G91" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H91" t="n" s="10">
+      <c r="H91" t="n" s="11">
         <v>0.027777777777777776</v>
       </c>
-      <c r="I91" t="n" s="11">
-        <v>0.07777777777777778</v>
-      </c>
-      <c r="O91" t="n" s="11">
+      <c r="I91" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J91" t="n" s="10">
+        <v>22.0</v>
+      </c>
+      <c r="O91" t="n" s="12">
         <v>0.9020833333333333</v>
       </c>
-      <c r="P91" t="n" s="11">
+      <c r="P91" t="n" s="12">
         <v>0.9298611111111111</v>
       </c>
-      <c r="R91" t="n" s="11">
+      <c r="R91" t="n" s="12">
         <v>0.8611111111111112</v>
       </c>
-      <c r="S91" t="n" s="11">
+      <c r="S91" t="n" s="12">
         <v>0.8888888888888888</v>
       </c>
     </row>
@@ -3543,22 +3812,25 @@
       <c r="G92" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H92" t="n" s="10">
+      <c r="H92" t="n" s="11">
         <v>0.024305555555555556</v>
       </c>
-      <c r="I92" t="n" s="11">
-        <v>0.04513888888888889</v>
-      </c>
-      <c r="O92" t="n" s="11">
+      <c r="I92" t="n" s="12">
+        <v>0.04861111111111111</v>
+      </c>
+      <c r="J92" t="n" s="10">
+        <v>25.0</v>
+      </c>
+      <c r="O92" t="n" s="12">
         <v>0.8993055555555556</v>
       </c>
-      <c r="P92" t="n" s="11">
+      <c r="P92" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="R92" t="n" s="11">
+      <c r="R92" t="n" s="12">
         <v>0.875</v>
       </c>
-      <c r="S92" t="n" s="11">
+      <c r="S92" t="n" s="12">
         <v>0.8993055555555556</v>
       </c>
     </row>
@@ -3578,22 +3850,25 @@
       <c r="G93" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H93" t="n" s="10">
+      <c r="H93" t="n" s="11">
         <v>0.027777777777777776</v>
       </c>
-      <c r="I93" t="n" s="11">
-        <v>0.10694444444444444</v>
-      </c>
-      <c r="O93" t="n" s="11">
+      <c r="I93" t="n" s="12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J93" t="n" s="10">
+        <v>22.0</v>
+      </c>
+      <c r="O93" t="n" s="12">
         <v>0.8756944444444444</v>
       </c>
-      <c r="P93" t="n" s="11">
+      <c r="P93" t="n" s="12">
         <v>0.9104166666666667</v>
       </c>
-      <c r="R93" t="n" s="11">
+      <c r="R93" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
-      <c r="S93" t="n" s="11">
+      <c r="S93" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
     </row>
@@ -3613,22 +3888,25 @@
       <c r="G94" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H94" t="n" s="10">
+      <c r="H94" t="n" s="11">
         <v>0.0763888888888889</v>
       </c>
-      <c r="I94" t="n" s="11">
-        <v>0.07291666666666667</v>
-      </c>
-      <c r="O94" t="n" s="11">
+      <c r="I94" t="n" s="12">
+        <v>0.0763888888888889</v>
+      </c>
+      <c r="J94" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="O94" t="n" s="12">
         <v>0.8680555555555556</v>
       </c>
-      <c r="P94" t="n" s="11">
+      <c r="P94" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R94" t="n" s="11">
+      <c r="R94" t="n" s="12">
         <v>0.8298611111111112</v>
       </c>
-      <c r="S94" t="n" s="11">
+      <c r="S94" t="n" s="12">
         <v>0.90625</v>
       </c>
     </row>
@@ -3648,22 +3926,25 @@
       <c r="G95" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H95" t="n" s="10">
+      <c r="H95" t="n" s="11">
         <v>0.017361111111111112</v>
       </c>
-      <c r="I95" t="n" s="11">
-        <v>0.06597222222222222</v>
-      </c>
-      <c r="O95" t="n" s="11">
+      <c r="I95" t="n" s="12">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="J95" t="n" s="10">
+        <v>36.0</v>
+      </c>
+      <c r="O95" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P95" t="n" s="11">
+      <c r="P95" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="R95" t="n" s="11">
+      <c r="R95" t="n" s="12">
         <v>0.9173611111111111</v>
       </c>
-      <c r="S95" t="n" s="11">
+      <c r="S95" t="n" s="12">
         <v>0.9520833333333333</v>
       </c>
     </row>
@@ -3683,22 +3964,25 @@
       <c r="G96" t="n" s="9">
         <v>1.0</v>
       </c>
-      <c r="H96" t="n" s="10">
+      <c r="H96" t="n" s="11">
         <v>0.04861111111111111</v>
       </c>
-      <c r="I96" t="n" s="11">
-        <v>0.04513888888888889</v>
-      </c>
-      <c r="O96" t="n" s="11">
+      <c r="I96" t="n" s="12">
+        <v>0.04861111111111111</v>
+      </c>
+      <c r="J96" t="n" s="10">
+        <v>12.0</v>
+      </c>
+      <c r="O96" t="n" s="12">
         <v>0.8958333333333334</v>
       </c>
-      <c r="P96" t="n" s="11">
+      <c r="P96" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R96" t="n" s="11">
+      <c r="R96" t="n" s="12">
         <v>0.8694444444444445</v>
       </c>
-      <c r="S96" t="n" s="11">
+      <c r="S96" t="n" s="12">
         <v>0.9180555555555555</v>
       </c>
     </row>
@@ -3718,22 +4002,25 @@
       <c r="G97" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H97" t="n" s="10">
+      <c r="H97" t="n" s="11">
         <v>0.020833333333333332</v>
       </c>
-      <c r="I97" t="n" s="11">
-        <v>0.03819444444444445</v>
-      </c>
-      <c r="O97" t="n" s="11">
+      <c r="I97" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J97" t="n" s="10">
+        <v>30.0</v>
+      </c>
+      <c r="O97" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="P97" t="n" s="11">
+      <c r="P97" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R97" t="n" s="11">
+      <c r="R97" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
-      <c r="S97" t="n" s="11">
+      <c r="S97" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -3753,22 +4040,25 @@
       <c r="G98" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H98" t="n" s="10">
+      <c r="H98" t="n" s="11">
         <v>0.027777777777777776</v>
       </c>
-      <c r="I98" t="n" s="11">
-        <v>0.07777777777777778</v>
-      </c>
-      <c r="O98" t="n" s="11">
+      <c r="I98" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J98" t="n" s="10">
+        <v>21.0</v>
+      </c>
+      <c r="O98" t="n" s="12">
         <v>0.89375</v>
       </c>
-      <c r="P98" t="n" s="11">
+      <c r="P98" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
-      <c r="R98" t="n" s="11">
+      <c r="R98" t="n" s="12">
         <v>0.8541666666666666</v>
       </c>
-      <c r="S98" t="n" s="11">
+      <c r="S98" t="n" s="12">
         <v>0.8819444444444444</v>
       </c>
     </row>
@@ -3788,22 +4078,25 @@
       <c r="G99" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="H99" t="n" s="10">
+      <c r="H99" t="n" s="11">
         <v>0.011111111111111112</v>
       </c>
-      <c r="I99" t="n" s="11">
-        <v>0.052083333333333336</v>
-      </c>
-      <c r="O99" t="n" s="11">
+      <c r="I99" t="n" s="12">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="J99" t="n" s="10">
+        <v>56.0</v>
+      </c>
+      <c r="O99" t="n" s="12">
         <v>0.925</v>
       </c>
-      <c r="P99" t="n" s="11">
+      <c r="P99" t="n" s="12">
         <v>0.9472222222222222</v>
       </c>
-      <c r="R99" t="n" s="11">
+      <c r="R99" t="n" s="12">
         <v>0.93125</v>
       </c>
-      <c r="S99" t="n" s="11">
+      <c r="S99" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
     </row>
@@ -3823,22 +4116,25 @@
       <c r="G100" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="H100" t="n" s="10">
+      <c r="H100" t="n" s="11">
         <v>0.024305555555555556</v>
       </c>
-      <c r="I100" t="n" s="11">
-        <v>0.04513888888888889</v>
-      </c>
-      <c r="O100" t="n" s="11">
+      <c r="I100" t="n" s="12">
+        <v>0.04861111111111111</v>
+      </c>
+      <c r="J100" t="n" s="10">
+        <v>25.0</v>
+      </c>
+      <c r="O100" t="n" s="12">
         <v>0.8993055555555556</v>
       </c>
-      <c r="P100" t="n" s="11">
+      <c r="P100" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="R100" t="n" s="11">
+      <c r="R100" t="n" s="12">
         <v>0.8986111111111111</v>
       </c>
-      <c r="S100" t="n" s="11">
+      <c r="S100" t="n" s="12">
         <v>0.9229166666666667</v>
       </c>
     </row>
@@ -3858,22 +4154,25 @@
       <c r="G101" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H101" t="n" s="10">
+      <c r="H101" t="n" s="11">
         <v>0.01597222222222222</v>
       </c>
-      <c r="I101" t="n" s="11">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="O101" t="n" s="11">
+      <c r="I101" t="n" s="12">
+        <v>0.04791666666666667</v>
+      </c>
+      <c r="J101" t="n" s="10">
+        <v>36.0</v>
+      </c>
+      <c r="O101" t="n" s="12">
         <v>0.9131944444444444</v>
       </c>
-      <c r="P101" t="n" s="11">
+      <c r="P101" t="n" s="12">
         <v>0.9291666666666667</v>
       </c>
-      <c r="R101" t="n" s="11">
+      <c r="R101" t="n" s="12">
         <v>0.9368055555555556</v>
       </c>
-      <c r="S101" t="n" s="11">
+      <c r="S101" t="n" s="12">
         <v>0.9527777777777777</v>
       </c>
     </row>
@@ -3893,22 +4192,25 @@
       <c r="G102" t="n" s="9">
         <v>10.0</v>
       </c>
-      <c r="H102" t="n" s="10">
+      <c r="H102" t="n" s="11">
         <v>0.007638888888888889</v>
       </c>
-      <c r="I102" t="n" s="11">
-        <v>0.07222222222222222</v>
-      </c>
-      <c r="O102" t="n" s="11">
+      <c r="I102" t="n" s="12">
+        <v>0.0763888888888889</v>
+      </c>
+      <c r="J102" t="n" s="10">
+        <v>82.0</v>
+      </c>
+      <c r="O102" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="P102" t="n" s="11">
+      <c r="P102" t="n" s="12">
         <v>0.9451388888888889</v>
       </c>
-      <c r="R102" t="n" s="11">
+      <c r="R102" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
-      <c r="S102" t="n" s="11">
+      <c r="S102" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
     </row>
@@ -3928,22 +4230,25 @@
       <c r="G103" t="n" s="9">
         <v>16.0</v>
       </c>
-      <c r="H103" t="n" s="10">
+      <c r="H103" t="n" s="11">
         <v>0.008333333333333333</v>
       </c>
-      <c r="I103" t="n" s="11">
-        <v>0.12986111111111112</v>
-      </c>
-      <c r="O103" t="n" s="11">
+      <c r="I103" t="n" s="12">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J103" t="n" s="10">
+        <v>75.0</v>
+      </c>
+      <c r="O103" t="n" s="12">
         <v>0.9354166666666667</v>
       </c>
-      <c r="P103" t="n" s="11">
+      <c r="P103" t="n" s="12">
         <v>0.9451388888888889</v>
       </c>
-      <c r="R103" t="n" s="11">
+      <c r="R103" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S103" t="n" s="11">
+      <c r="S103" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
     </row>
@@ -3963,22 +4268,25 @@
       <c r="G104" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H104" t="n" s="10">
+      <c r="H104" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I104" t="n" s="11">
-        <v>0.03819444444444445</v>
-      </c>
-      <c r="O104" t="n" s="11">
+      <c r="I104" t="n" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="J104" t="n" s="10">
+        <v>59.0</v>
+      </c>
+      <c r="O104" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="P104" t="n" s="11">
+      <c r="P104" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R104" t="n" s="11">
+      <c r="R104" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
-      <c r="S104" t="n" s="11">
+      <c r="S104" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -3998,22 +4306,25 @@
       <c r="G105" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H105" t="n" s="10">
+      <c r="H105" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I105" t="n" s="11">
-        <v>0.0798611111111111</v>
-      </c>
-      <c r="O105" t="n" s="11">
+      <c r="I105" t="n" s="12">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J105" t="n" s="10">
+        <v>60.0</v>
+      </c>
+      <c r="O105" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="P105" t="n" s="11">
+      <c r="P105" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
-      <c r="R105" t="n" s="11">
+      <c r="R105" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S105" t="n" s="11">
+      <c r="S105" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
     </row>
@@ -4033,22 +4344,25 @@
       <c r="G106" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H106" t="n" s="10">
+      <c r="H106" t="n" s="11">
         <v>0.009027777777777777</v>
       </c>
-      <c r="I106" t="n" s="11">
-        <v>0.06875</v>
-      </c>
-      <c r="O106" t="n" s="11">
+      <c r="I106" t="n" s="12">
+        <v>0.07222222222222222</v>
+      </c>
+      <c r="J106" t="n" s="10">
+        <v>69.0</v>
+      </c>
+      <c r="O106" t="n" s="12">
         <v>0.9256944444444445</v>
       </c>
-      <c r="P106" t="n" s="11">
+      <c r="P106" t="n" s="12">
         <v>0.9375</v>
       </c>
-      <c r="R106" t="n" s="11">
+      <c r="R106" t="n" s="12">
         <v>0.9256944444444445</v>
       </c>
-      <c r="S106" t="n" s="11">
+      <c r="S106" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -4068,22 +4382,25 @@
       <c r="G107" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H107" t="n" s="10">
+      <c r="H107" t="n" s="11">
         <v>0.004861111111111111</v>
       </c>
-      <c r="I107" t="n" s="11">
+      <c r="I107" t="n" s="12">
         <v>0.019444444444444445</v>
       </c>
-      <c r="O107" t="n" s="11">
+      <c r="J107" t="n" s="10">
+        <v>136.0</v>
+      </c>
+      <c r="O107" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="P107" t="n" s="11">
+      <c r="P107" t="n" s="12">
         <v>0.9479166666666666</v>
       </c>
-      <c r="R107" t="s" s="11">
+      <c r="R107" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="S107" t="s" s="11">
+      <c r="S107" t="s" s="12">
         <v>20</v>
       </c>
     </row>
@@ -4103,22 +4420,25 @@
       <c r="G108" t="n" s="9">
         <v>9.0</v>
       </c>
-      <c r="H108" t="n" s="10">
+      <c r="H108" t="n" s="11">
         <v>0.010416666666666666</v>
       </c>
-      <c r="I108" t="n" s="11">
-        <v>0.09027777777777778</v>
-      </c>
-      <c r="O108" t="n" s="11">
+      <c r="I108" t="n" s="12">
+        <v>0.09375</v>
+      </c>
+      <c r="J108" t="n" s="10">
+        <v>61.0</v>
+      </c>
+      <c r="O108" t="n" s="12">
         <v>0.9291666666666667</v>
       </c>
-      <c r="P108" t="n" s="11">
+      <c r="P108" t="n" s="12">
         <v>0.9395833333333333</v>
       </c>
-      <c r="R108" t="n" s="11">
+      <c r="R108" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
-      <c r="S108" t="n" s="11">
+      <c r="S108" t="n" s="12">
         <v>0.9444444444444444</v>
       </c>
     </row>
@@ -4138,22 +4458,25 @@
       <c r="G109" t="n" s="9">
         <v>9.0</v>
       </c>
-      <c r="H109" t="n" s="10">
+      <c r="H109" t="n" s="11">
         <v>0.006944444444444444</v>
       </c>
-      <c r="I109" t="n" s="11">
-        <v>0.059027777777777776</v>
-      </c>
-      <c r="O109" t="n" s="11">
+      <c r="I109" t="n" s="12">
+        <v>0.0625</v>
+      </c>
+      <c r="J109" t="n" s="10">
+        <v>92.0</v>
+      </c>
+      <c r="O109" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
-      <c r="P109" t="n" s="11">
+      <c r="P109" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R109" t="n" s="11">
+      <c r="R109" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S109" t="n" s="11">
+      <c r="S109" t="n" s="12">
         <v>0.9375</v>
       </c>
     </row>
@@ -4173,22 +4496,25 @@
       <c r="G110" t="n" s="9">
         <v>15.0</v>
       </c>
-      <c r="H110" t="n" s="10">
+      <c r="H110" t="n" s="11">
         <v>0.006944444444444444</v>
       </c>
-      <c r="I110" t="n" s="11">
-        <v>0.10069444444444445</v>
-      </c>
-      <c r="O110" t="n" s="11">
+      <c r="I110" t="n" s="12">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="J110" t="n" s="10">
+        <v>89.0</v>
+      </c>
+      <c r="O110" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="P110" t="n" s="11">
+      <c r="P110" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
-      <c r="R110" t="n" s="11">
+      <c r="R110" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
-      <c r="S110" t="n" s="11">
+      <c r="S110" t="n" s="12">
         <v>0.9409722222222222</v>
       </c>
     </row>
@@ -4208,22 +4534,25 @@
       <c r="G111" t="n" s="9">
         <v>10.0</v>
       </c>
-      <c r="H111" t="n" s="10">
+      <c r="H111" t="n" s="11">
         <v>0.009027777777777777</v>
       </c>
-      <c r="I111" t="n" s="11">
-        <v>0.08680555555555555</v>
-      </c>
-      <c r="O111" t="n" s="11">
+      <c r="I111" t="n" s="12">
+        <v>0.09027777777777778</v>
+      </c>
+      <c r="J111" t="n" s="10">
+        <v>71.0</v>
+      </c>
+      <c r="O111" t="n" s="12">
         <v>0.9326388888888889</v>
       </c>
-      <c r="P111" t="n" s="11">
+      <c r="P111" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
-      <c r="R111" t="n" s="11">
+      <c r="R111" t="n" s="12">
         <v>0.9326388888888889</v>
       </c>
-      <c r="S111" t="n" s="11">
+      <c r="S111" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
     </row>
@@ -4243,22 +4572,25 @@
       <c r="G112" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H112" t="n" s="10">
+      <c r="H112" t="n" s="11">
         <v>0.009722222222222222</v>
       </c>
-      <c r="I112" t="n" s="11">
-        <v>0.07430555555555556</v>
-      </c>
-      <c r="O112" t="n" s="11">
+      <c r="I112" t="n" s="12">
+        <v>0.07777777777777778</v>
+      </c>
+      <c r="J112" t="n" s="10">
+        <v>64.0</v>
+      </c>
+      <c r="O112" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
-      <c r="P112" t="n" s="11">
+      <c r="P112" t="n" s="12">
         <v>0.9388888888888889</v>
       </c>
-      <c r="R112" t="n" s="11">
+      <c r="R112" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
-      <c r="S112" t="n" s="11">
+      <c r="S112" t="n" s="12">
         <v>0.9388888888888889</v>
       </c>
     </row>
@@ -4278,22 +4610,25 @@
       <c r="G113" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="H113" t="n" s="10">
+      <c r="H113" t="n" s="11">
         <v>0.009027777777777777</v>
       </c>
-      <c r="I113" t="n" s="11">
-        <v>0.06875</v>
-      </c>
-      <c r="O113" t="n" s="11">
+      <c r="I113" t="n" s="12">
+        <v>0.07222222222222222</v>
+      </c>
+      <c r="J113" t="n" s="10">
+        <v>71.0</v>
+      </c>
+      <c r="O113" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
-      <c r="P113" t="n" s="11">
+      <c r="P113" t="n" s="12">
         <v>0.9423611111111111</v>
       </c>
-      <c r="R113" t="n" s="11">
+      <c r="R113" t="n" s="12">
         <v>0.9326388888888889</v>
       </c>
-      <c r="S113" t="n" s="11">
+      <c r="S113" t="n" s="12">
         <v>0.9416666666666667</v>
       </c>
     </row>
@@ -4313,22 +4648,25 @@
       <c r="G114" t="n" s="9">
         <v>3.0</v>
       </c>
-      <c r="H114" t="n" s="10">
+      <c r="H114" t="n" s="11">
         <v>0.009722222222222222</v>
       </c>
-      <c r="I114" t="n" s="11">
+      <c r="I114" t="n" s="12">
         <v>0.029166666666666667</v>
       </c>
-      <c r="O114" t="n" s="11">
+      <c r="J114" t="n" s="10">
+        <v>68.0</v>
+      </c>
+      <c r="O114" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
-      <c r="P114" t="n" s="11">
+      <c r="P114" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
-      <c r="R114" t="s" s="11">
+      <c r="R114" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="S114" t="s" s="11">
+      <c r="S114" t="s" s="12">
         <v>20</v>
       </c>
     </row>
@@ -4348,22 +4686,25 @@
       <c r="G115" t="n" s="9">
         <v>4.0</v>
       </c>
-      <c r="H115" t="n" s="10">
+      <c r="H115" t="n" s="11">
         <v>0.007638888888888889</v>
       </c>
-      <c r="I115" t="n" s="11">
+      <c r="I115" t="n" s="12">
         <v>0.030555555555555555</v>
       </c>
-      <c r="O115" t="n" s="11">
+      <c r="J115" t="n" s="10">
+        <v>84.0</v>
+      </c>
+      <c r="O115" t="n" s="12">
         <v>0.9298611111111111</v>
       </c>
-      <c r="P115" t="n" s="11">
+      <c r="P115" t="n" s="12">
         <v>0.9402777777777778</v>
       </c>
-      <c r="R115" t="s" s="11">
+      <c r="R115" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="S115" t="s" s="11">
+      <c r="S115" t="s" s="12">
         <v>20</v>
       </c>
     </row>

--- a/downloads/asdasd.xlsx
+++ b/downloads/asdasd.xlsx
@@ -96,11 +96,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode=""/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="[mm]:ss"/>
-    <numFmt numFmtId="167" formatCode="[hh]:mm"/>
+    <numFmt numFmtId="165" formatCode="[mm]:ss"/>
+    <numFmt numFmtId="166" formatCode="[h]:mm"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -279,13 +278,13 @@
     <xf numFmtId="1" fontId="9" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="165" fontId="11" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="166" fontId="12" fillId="11" borderId="4" xfId="0" applyFill="true" applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -515,6 +514,13 @@
       <c r="J5" t="n" s="10">
         <v>71.0</v>
       </c>
+      <c r="K5" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5" t="n" s="12">
+        <v>0.9770833333333333</v>
+      </c>
       <c r="O5" t="n" s="12">
         <v>0.925</v>
       </c>
@@ -553,6 +559,13 @@
       <c r="J6" t="n" s="10">
         <v>92.0</v>
       </c>
+      <c r="K6" t="n" s="12">
+        <v>0.28125</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6" t="n" s="12">
+        <v>0.9826388888888888</v>
+      </c>
       <c r="O6" t="n" s="12">
         <v>0.9340277777777778</v>
       </c>
@@ -589,7 +602,14 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="J7" t="n" s="10">
-        <v>55.0</v>
+        <v>55.5</v>
+      </c>
+      <c r="K7" t="n" s="12">
+        <v>0.2847222222222222</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7" t="n" s="12">
+        <v>0.9736111111111111</v>
       </c>
       <c r="O7" t="n" s="12">
         <v>0.9180555555555555</v>
@@ -627,7 +647,14 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="J8" t="n" s="10">
-        <v>22.0</v>
+        <v>22.5</v>
+      </c>
+      <c r="K8" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8" t="n" s="12">
+        <v>0.9840277777777777</v>
       </c>
       <c r="O8" t="n" s="12">
         <v>0.9145833333333333</v>
@@ -667,6 +694,13 @@
       <c r="J9" t="n" s="10">
         <v>14.0</v>
       </c>
+      <c r="K9" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9" t="n" s="12">
+        <v>0.9583333333333334</v>
+      </c>
       <c r="O9" t="n" s="12">
         <v>0.875</v>
       </c>
@@ -703,7 +737,14 @@
         <v>0.09722222222222222</v>
       </c>
       <c r="J10" t="n" s="10">
-        <v>44.0</v>
+        <v>44.5</v>
+      </c>
+      <c r="K10" t="n" s="12">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10" t="n" s="12">
+        <v>1.0</v>
       </c>
       <c r="O10" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -741,7 +782,14 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="J11" t="n" s="10">
-        <v>44.0</v>
+        <v>44.5</v>
+      </c>
+      <c r="K11" t="n" s="12">
+        <v>0.2847222222222222</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11" t="n" s="12">
+        <v>0.9722222222222222</v>
       </c>
       <c r="O11" t="n" s="12">
         <v>0.9375</v>
@@ -781,6 +829,13 @@
       <c r="J12" t="n" s="10">
         <v>62.0</v>
       </c>
+      <c r="K12" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12" t="n" s="12">
+        <v>0.9736111111111111</v>
+      </c>
       <c r="O12" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
@@ -817,7 +872,14 @@
         <v>0.10694444444444444</v>
       </c>
       <c r="J13" t="n" s="10">
-        <v>23.0</v>
+        <v>23.5</v>
+      </c>
+      <c r="K13" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13" t="n" s="12">
+        <v>0.9902777777777778</v>
       </c>
       <c r="O13" t="n" s="12">
         <v>0.9097222222222222</v>
@@ -857,6 +919,13 @@
       <c r="J14" t="n" s="10">
         <v>49.0</v>
       </c>
+      <c r="K14" t="n" s="12">
+        <v>0.2861111111111111</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14" t="n" s="12">
+        <v>0.9923611111111111</v>
+      </c>
       <c r="O14" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
@@ -895,6 +964,13 @@
       <c r="J15" t="n" s="10">
         <v>34.0</v>
       </c>
+      <c r="K15" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15" t="n" s="12">
+        <v>0.9909722222222223</v>
+      </c>
       <c r="O15" t="n" s="12">
         <v>0.8986111111111111</v>
       </c>
@@ -931,7 +1007,14 @@
         <v>0.09930555555555555</v>
       </c>
       <c r="J16" t="n" s="10">
-        <v>67.0</v>
+        <v>67.5</v>
+      </c>
+      <c r="K16" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16" t="n" s="12">
+        <v>0.9958333333333333</v>
       </c>
       <c r="O16" t="n" s="12">
         <v>0.9055555555555556</v>
@@ -969,7 +1052,14 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="J17" t="n" s="10">
-        <v>43.0</v>
+        <v>43.5</v>
+      </c>
+      <c r="K17" t="n" s="12">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17" t="n" s="12">
+        <v>0.9791666666666666</v>
       </c>
       <c r="O17" t="n" s="12">
         <v>0.9097222222222222</v>
@@ -1007,7 +1097,14 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="J18" t="n" s="10">
-        <v>6.0</v>
+        <v>6.5</v>
+      </c>
+      <c r="K18" t="n" s="12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18" t="n" s="12">
+        <v>0.9166666666666666</v>
       </c>
       <c r="O18" t="n" s="12">
         <v>0.8125</v>
@@ -1047,6 +1144,13 @@
       <c r="J19" t="n" s="10">
         <v>58.0</v>
       </c>
+      <c r="K19" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19" t="n" s="12">
+        <v>0.9791666666666666</v>
+      </c>
       <c r="O19" t="n" s="12">
         <v>0.90625</v>
       </c>
@@ -1085,6 +1189,13 @@
       <c r="J20" t="n" s="10">
         <v>23.0</v>
       </c>
+      <c r="K20" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20" t="n" s="12">
+        <v>0.9861111111111112</v>
+      </c>
       <c r="O20" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
@@ -1121,7 +1232,14 @@
         <v>0.0763888888888889</v>
       </c>
       <c r="J21" t="n" s="10">
-        <v>82.0</v>
+        <v>82.5</v>
+      </c>
+      <c r="K21" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21" t="n" s="12">
+        <v>0.9868055555555556</v>
       </c>
       <c r="O21" t="n" s="12">
         <v>0.9333333333333333</v>
@@ -1159,7 +1277,14 @@
         <v>0.12986111111111112</v>
       </c>
       <c r="J22" t="n" s="10">
-        <v>51.0</v>
+        <v>51.5</v>
+      </c>
+      <c r="K22" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22" t="n" s="12">
+        <v>1.0118055555555556</v>
       </c>
       <c r="O22" t="n" s="12">
         <v>0.89375</v>
@@ -1197,7 +1322,14 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="J23" t="n" s="10">
-        <v>22.0</v>
+        <v>22.5</v>
+      </c>
+      <c r="K23" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L23"/>
+      <c r="M23" t="n" s="12">
+        <v>0.9861111111111112</v>
       </c>
       <c r="O23" t="n" s="12">
         <v>0.875</v>
@@ -1235,7 +1367,14 @@
         <v>0.09027777777777778</v>
       </c>
       <c r="J24" t="n" s="10">
-        <v>59.0</v>
+        <v>59.5</v>
+      </c>
+      <c r="K24" t="n" s="12">
+        <v>0.3013888888888889</v>
+      </c>
+      <c r="L24"/>
+      <c r="M24" t="n" s="12">
+        <v>0.9909722222222223</v>
       </c>
       <c r="O24" t="n" s="12">
         <v>0.9152777777777777</v>
@@ -1275,6 +1414,13 @@
       <c r="J25" t="n" s="10">
         <v>54.0</v>
       </c>
+      <c r="K25" t="n" s="12">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="L25"/>
+      <c r="M25" t="n" s="12">
+        <v>0.9986111111111111</v>
+      </c>
       <c r="O25" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
@@ -1313,6 +1459,13 @@
       <c r="J26" t="n" s="10">
         <v>69.0</v>
       </c>
+      <c r="K26" t="n" s="12">
+        <v>0.2743055555555556</v>
+      </c>
+      <c r="L26"/>
+      <c r="M26" t="n" s="12">
+        <v>0.9784722222222222</v>
+      </c>
       <c r="O26" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
@@ -1349,7 +1502,14 @@
         <v>0.04861111111111111</v>
       </c>
       <c r="J27" t="n" s="10">
-        <v>11.0</v>
+        <v>11.5</v>
+      </c>
+      <c r="K27" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L27"/>
+      <c r="M27" t="n" s="12">
+        <v>0.9131944444444444</v>
       </c>
       <c r="O27" t="n" s="12">
         <v>0.8402777777777778</v>
@@ -1389,6 +1549,13 @@
       <c r="J28" t="n" s="10">
         <v>60.0</v>
       </c>
+      <c r="K28" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L28"/>
+      <c r="M28" t="n" s="12">
+        <v>0.9763888888888889</v>
+      </c>
       <c r="O28" t="n" s="12">
         <v>0.9256944444444445</v>
       </c>
@@ -1425,7 +1592,14 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="J29" t="n" s="10">
-        <v>59.0</v>
+        <v>59.5</v>
+      </c>
+      <c r="K29" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L29"/>
+      <c r="M29" t="n" s="12">
+        <v>0.96875</v>
       </c>
       <c r="O29" t="n" s="12">
         <v>0.9270833333333334</v>
@@ -1463,7 +1637,14 @@
         <v>0.06875</v>
       </c>
       <c r="J30" t="n" s="10">
-        <v>27.0</v>
+        <v>27.5</v>
+      </c>
+      <c r="K30" t="n" s="12">
+        <v>0.29375</v>
+      </c>
+      <c r="L30"/>
+      <c r="M30" t="n" s="12">
+        <v>0.9791666666666666</v>
       </c>
       <c r="O30" t="n" s="12">
         <v>0.8986111111111111</v>
@@ -1501,7 +1682,14 @@
         <v>0.0625</v>
       </c>
       <c r="J31" t="n" s="10">
-        <v>29.0</v>
+        <v>29.5</v>
+      </c>
+      <c r="K31" t="n" s="12">
+        <v>0.28125</v>
+      </c>
+      <c r="L31"/>
+      <c r="M31" t="n" s="12">
+        <v>0.9756944444444444</v>
       </c>
       <c r="O31" t="n" s="12">
         <v>0.90625</v>
@@ -1539,7 +1727,14 @@
         <v>0.06944444444444445</v>
       </c>
       <c r="J32" t="n" s="10">
-        <v>43.0</v>
+        <v>43.5</v>
+      </c>
+      <c r="K32" t="n" s="12">
+        <v>0.28888888888888886</v>
+      </c>
+      <c r="L32"/>
+      <c r="M32" t="n" s="12">
+        <v>0.9833333333333333</v>
       </c>
       <c r="O32" t="n" s="12">
         <v>0.9138888888888889</v>
@@ -1577,7 +1772,14 @@
         <v>0.0625</v>
       </c>
       <c r="J33" t="n" s="10">
-        <v>42.0</v>
+        <v>42.5</v>
+      </c>
+      <c r="K33" t="n" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="L33"/>
+      <c r="M33" t="n" s="12">
+        <v>0.96875</v>
       </c>
       <c r="O33" t="n" s="12">
         <v>0.9215277777777777</v>
@@ -1615,7 +1817,14 @@
         <v>0.1</v>
       </c>
       <c r="J34" t="n" s="10">
-        <v>53.0</v>
+        <v>53.5</v>
+      </c>
+      <c r="K34" t="n" s="12">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="L34"/>
+      <c r="M34" t="n" s="12">
+        <v>0.9951388888888889</v>
       </c>
       <c r="O34" t="n" s="12">
         <v>0.8951388888888889</v>
@@ -1653,7 +1862,14 @@
         <v>0.09097222222222222</v>
       </c>
       <c r="J35" t="n" s="10">
-        <v>63.0</v>
+        <v>63.5</v>
+      </c>
+      <c r="K35" t="n" s="12">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="L35"/>
+      <c r="M35" t="n" s="12">
+        <v>0.9923611111111111</v>
       </c>
       <c r="O35" t="n" s="12">
         <v>0.9215277777777777</v>
@@ -1693,6 +1909,13 @@
       <c r="J36" t="n" s="10">
         <v>15.0</v>
       </c>
+      <c r="K36" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L36"/>
+      <c r="M36" t="n" s="12">
+        <v>0.9375</v>
+      </c>
       <c r="O36" t="n" s="12">
         <v>0.8541666666666666</v>
       </c>
@@ -1729,7 +1952,14 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="J37" t="n" s="10">
-        <v>87.0</v>
+        <v>87.5</v>
+      </c>
+      <c r="K37" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L37"/>
+      <c r="M37" t="n" s="12">
+        <v>0.9583333333333334</v>
       </c>
       <c r="O37" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -1769,6 +1999,13 @@
       <c r="J38" t="n" s="10">
         <v>63.0</v>
       </c>
+      <c r="K38" t="n" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="L38"/>
+      <c r="M38" t="n" s="12">
+        <v>1.0</v>
+      </c>
       <c r="O38" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
@@ -1807,6 +2044,13 @@
       <c r="J39" t="n" s="10">
         <v>105.0</v>
       </c>
+      <c r="K39" t="n" s="12">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="L39"/>
+      <c r="M39" t="n" s="12">
+        <v>0.975</v>
+      </c>
       <c r="O39" t="n" s="12">
         <v>0.925</v>
       </c>
@@ -1845,6 +2089,13 @@
       <c r="J40" t="n" s="10">
         <v>90.0</v>
       </c>
+      <c r="K40" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L40"/>
+      <c r="M40" t="n" s="12">
+        <v>0.9729166666666667</v>
+      </c>
       <c r="O40" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
@@ -1881,7 +2132,14 @@
         <v>0.06041666666666667</v>
       </c>
       <c r="J41" t="n" s="10">
-        <v>30.0</v>
+        <v>30.5</v>
+      </c>
+      <c r="K41" t="n" s="12">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="L41"/>
+      <c r="M41" t="n" s="12">
+        <v>0.9722222222222222</v>
       </c>
       <c r="O41" t="n" s="12">
         <v>0.9097222222222222</v>
@@ -1921,6 +2179,13 @@
       <c r="J42" t="n" s="10">
         <v>23.0</v>
       </c>
+      <c r="K42" t="n" s="12">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="L42"/>
+      <c r="M42" t="n" s="12">
+        <v>0.9930555555555556</v>
+      </c>
       <c r="O42" t="n" s="12">
         <v>0.9097222222222222</v>
       </c>
@@ -1957,7 +2222,14 @@
         <v>0.05138888888888889</v>
       </c>
       <c r="J43" t="n" s="10">
-        <v>48.0</v>
+        <v>48.5</v>
+      </c>
+      <c r="K43" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L43"/>
+      <c r="M43" t="n" s="12">
+        <v>0.9729166666666667</v>
       </c>
       <c r="O43" t="n" s="12">
         <v>0.9208333333333333</v>
@@ -1997,6 +2269,13 @@
       <c r="J44" t="n" s="10">
         <v>42.0</v>
       </c>
+      <c r="K44" t="n" s="12">
+        <v>0.3020833333333333</v>
+      </c>
+      <c r="L44"/>
+      <c r="M44" t="n" s="12">
+        <v>0.96875</v>
+      </c>
       <c r="O44" t="n" s="12">
         <v>0.8854166666666666</v>
       </c>
@@ -2033,7 +2312,14 @@
         <v>0.03125</v>
       </c>
       <c r="J45" t="n" s="10">
-        <v>39.0</v>
+        <v>39.5</v>
+      </c>
+      <c r="K45" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L45"/>
+      <c r="M45" t="n" s="12">
+        <v>0.9527777777777777</v>
       </c>
       <c r="O45" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -2071,7 +2357,14 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="J46" t="n" s="10">
-        <v>14.0</v>
+        <v>14.5</v>
+      </c>
+      <c r="K46" t="n" s="12">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="L46"/>
+      <c r="M46" t="n" s="12">
+        <v>0.9652777777777778</v>
       </c>
       <c r="O46" t="n" s="12">
         <v>0.9027777777777778</v>
@@ -2109,7 +2402,14 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="J47" t="n" s="10">
-        <v>29.0</v>
+        <v>29.5</v>
+      </c>
+      <c r="K47" t="n" s="12">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="L47"/>
+      <c r="M47" t="n" s="12">
+        <v>0.9722222222222222</v>
       </c>
       <c r="O47" t="n" s="12">
         <v>0.9305555555555556</v>
@@ -2149,6 +2449,13 @@
       <c r="J48" t="n" s="10">
         <v>54.0</v>
       </c>
+      <c r="K48" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L48"/>
+      <c r="M48" t="n" s="12">
+        <v>0.9916666666666667</v>
+      </c>
       <c r="O48" t="n" s="12">
         <v>0.9027777777777778</v>
       </c>
@@ -2185,7 +2492,14 @@
         <v>0.06944444444444445</v>
       </c>
       <c r="J49" t="n" s="10">
-        <v>34.0</v>
+        <v>34.5</v>
+      </c>
+      <c r="K49" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L49"/>
+      <c r="M49" t="n" s="12">
+        <v>0.9722222222222222</v>
       </c>
       <c r="O49" t="n" s="12">
         <v>0.9027777777777778</v>
@@ -2223,7 +2537,14 @@
         <v>0.06458333333333334</v>
       </c>
       <c r="J50" t="n" s="10">
-        <v>55.0</v>
+        <v>55.5</v>
+      </c>
+      <c r="K50" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L50"/>
+      <c r="M50" t="n" s="12">
+        <v>0.9805555555555555</v>
       </c>
       <c r="O50" t="n" s="12">
         <v>0.9263888888888889</v>
@@ -2263,6 +2584,13 @@
       <c r="J51" t="n" s="10">
         <v>59.0</v>
       </c>
+      <c r="K51" t="n" s="12">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="L51"/>
+      <c r="M51" t="n" s="12">
+        <v>0.9861111111111112</v>
+      </c>
       <c r="O51" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
@@ -2299,7 +2627,14 @@
         <v>0.13541666666666666</v>
       </c>
       <c r="J52" t="n" s="10">
-        <v>59.0</v>
+        <v>59.5</v>
+      </c>
+      <c r="K52" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L52"/>
+      <c r="M52" t="n" s="12">
+        <v>1.0104166666666667</v>
       </c>
       <c r="O52" t="n" s="12">
         <v>0.8854166666666666</v>
@@ -2337,7 +2672,14 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="J53" t="n" s="10">
-        <v>43.0</v>
+        <v>43.5</v>
+      </c>
+      <c r="K53" t="n" s="12">
+        <v>0.3020833333333333</v>
+      </c>
+      <c r="L53"/>
+      <c r="M53" t="n" s="12">
+        <v>0.96875</v>
       </c>
       <c r="O53" t="n" s="12">
         <v>0.9270833333333334</v>
@@ -2377,6 +2719,13 @@
       <c r="J54" t="n" s="10">
         <v>37.0</v>
       </c>
+      <c r="K54" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L54"/>
+      <c r="M54" t="n" s="12">
+        <v>0.9756944444444444</v>
+      </c>
       <c r="O54" t="n" s="12">
         <v>0.9194444444444444</v>
       </c>
@@ -2413,7 +2762,14 @@
         <v>0.09583333333333334</v>
       </c>
       <c r="J55" t="n" s="10">
-        <v>37.0</v>
+        <v>37.5</v>
+      </c>
+      <c r="K55" t="n" s="12">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="L55"/>
+      <c r="M55" t="n" s="12">
+        <v>0.9979166666666667</v>
       </c>
       <c r="O55" t="n" s="12">
         <v>0.9020833333333333</v>
@@ -2451,7 +2807,14 @@
         <v>0.0625</v>
       </c>
       <c r="J56" t="n" s="10">
-        <v>49.0</v>
+        <v>49.5</v>
+      </c>
+      <c r="K56" t="n" s="12">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="L56"/>
+      <c r="M56" t="n" s="12">
+        <v>0.9805555555555555</v>
       </c>
       <c r="O56" t="n" s="12">
         <v>0.9305555555555556</v>
@@ -2489,7 +2852,14 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="J57" t="n" s="10">
-        <v>14.0</v>
+        <v>14.5</v>
+      </c>
+      <c r="K57" t="n" s="12">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="L57"/>
+      <c r="M57" t="n" s="12">
+        <v>0.9756944444444444</v>
       </c>
       <c r="O57" t="n" s="12">
         <v>0.9131944444444444</v>
@@ -2527,7 +2897,14 @@
         <v>0.06944444444444445</v>
       </c>
       <c r="J58" t="n" s="10">
-        <v>32.0</v>
+        <v>32.5</v>
+      </c>
+      <c r="K58" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L58"/>
+      <c r="M58" t="n" s="12">
+        <v>0.9722222222222222</v>
       </c>
       <c r="O58" t="n" s="12">
         <v>0.9027777777777778</v>
@@ -2567,6 +2944,13 @@
       <c r="J59" t="n" s="10">
         <v>61.0</v>
       </c>
+      <c r="K59" t="n" s="12">
+        <v>0.3020833333333333</v>
+      </c>
+      <c r="L59"/>
+      <c r="M59" t="n" s="12">
+        <v>0.9784722222222222</v>
+      </c>
       <c r="O59" t="n" s="12">
         <v>0.9243055555555556</v>
       </c>
@@ -2605,6 +2989,13 @@
       <c r="J60" t="n" s="10">
         <v>51.0</v>
       </c>
+      <c r="K60" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L60"/>
+      <c r="M60" t="n" s="12">
+        <v>0.9833333333333333</v>
+      </c>
       <c r="O60" t="n" s="12">
         <v>0.9083333333333333</v>
       </c>
@@ -2643,6 +3034,13 @@
       <c r="J61" t="n" s="10">
         <v>52.0</v>
       </c>
+      <c r="K61" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L61"/>
+      <c r="M61" t="n" s="12">
+        <v>0.9881944444444445</v>
+      </c>
       <c r="O61" t="n" s="12">
         <v>0.9055555555555556</v>
       </c>
@@ -2679,7 +3077,14 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="J62" t="n" s="10">
-        <v>14.0</v>
+        <v>14.5</v>
+      </c>
+      <c r="K62" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L62"/>
+      <c r="M62" t="n" s="12">
+        <v>0.9583333333333334</v>
       </c>
       <c r="O62" t="n" s="12">
         <v>0.8958333333333334</v>
@@ -2717,7 +3122,14 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="J63" t="n" s="10">
-        <v>35.0</v>
+        <v>35.5</v>
+      </c>
+      <c r="K63" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L63"/>
+      <c r="M63" t="n" s="12">
+        <v>0.9458333333333333</v>
       </c>
       <c r="O63" t="n" s="12">
         <v>0.9125</v>
@@ -2755,7 +3167,14 @@
         <v>0.03125</v>
       </c>
       <c r="J64" t="n" s="10">
-        <v>18.0</v>
+        <v>18.5</v>
+      </c>
+      <c r="K64" t="n" s="12">
+        <v>0.3229166666666667</v>
+      </c>
+      <c r="L64"/>
+      <c r="M64" t="n" s="12">
+        <v>0.9326388888888889</v>
       </c>
       <c r="O64" t="n" s="12">
         <v>0.8854166666666666</v>
@@ -2795,6 +3214,13 @@
       <c r="J65" t="n" s="10">
         <v>50.0</v>
       </c>
+      <c r="K65" t="n" s="12">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="L65"/>
+      <c r="M65" t="n" s="12">
+        <v>0.9625</v>
+      </c>
       <c r="O65" t="n" s="12">
         <v>0.9215277777777777</v>
       </c>
@@ -2833,6 +3259,13 @@
       <c r="J66" t="n" s="10">
         <v>51.0</v>
       </c>
+      <c r="K66" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L66"/>
+      <c r="M66" t="n" s="12">
+        <v>0.9868055555555556</v>
+      </c>
       <c r="O66" t="n" s="12">
         <v>0.9236111111111112</v>
       </c>
@@ -2871,6 +3304,13 @@
       <c r="J67" t="n" s="10">
         <v>61.0</v>
       </c>
+      <c r="K67" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L67"/>
+      <c r="M67" t="n" s="12">
+        <v>0.9881944444444445</v>
+      </c>
       <c r="O67" t="n" s="12">
         <v>0.9138888888888889</v>
       </c>
@@ -2907,7 +3347,14 @@
         <v>0.06458333333333334</v>
       </c>
       <c r="J68" t="n" s="10">
-        <v>60.0</v>
+        <v>60.5</v>
+      </c>
+      <c r="K68" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L68"/>
+      <c r="M68" t="n" s="12">
+        <v>0.9708333333333333</v>
       </c>
       <c r="O68" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -2945,7 +3392,14 @@
         <v>0.029166666666666667</v>
       </c>
       <c r="J69" t="n" s="10">
-        <v>65.0</v>
+        <v>65.5</v>
+      </c>
+      <c r="K69" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L69"/>
+      <c r="M69" t="n" s="12">
+        <v>0.9625</v>
       </c>
       <c r="O69" t="n" s="12">
         <v>0.9333333333333333</v>
@@ -2985,6 +3439,13 @@
       <c r="J70" t="n" s="10">
         <v>15.0</v>
       </c>
+      <c r="K70" t="n" s="12">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L70"/>
+      <c r="M70" t="n" s="12">
+        <v>0.9375</v>
+      </c>
       <c r="O70" t="n" s="12">
         <v>0.8541666666666666</v>
       </c>
@@ -3021,7 +3482,14 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="J71" t="n" s="10">
-        <v>31.0</v>
+        <v>31.5</v>
+      </c>
+      <c r="K71" t="n" s="12">
+        <v>0.2847222222222222</v>
+      </c>
+      <c r="L71"/>
+      <c r="M71" t="n" s="12">
+        <v>0.9722222222222222</v>
       </c>
       <c r="O71" t="n" s="12">
         <v>0.9305555555555556</v>
@@ -3059,7 +3527,14 @@
         <v>0.034722222222222224</v>
       </c>
       <c r="J72" t="n" s="10">
-        <v>18.0</v>
+        <v>18.5</v>
+      </c>
+      <c r="K72" t="n" s="12">
+        <v>0.2881944444444444</v>
+      </c>
+      <c r="L72"/>
+      <c r="M72" t="n" s="12">
+        <v>0.9618055555555556</v>
       </c>
       <c r="O72" t="n" s="12">
         <v>0.9097222222222222</v>
@@ -3099,6 +3574,13 @@
       <c r="J73" t="n" s="10">
         <v>55.0</v>
       </c>
+      <c r="K73" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L73"/>
+      <c r="M73" t="n" s="12">
+        <v>0.9583333333333334</v>
+      </c>
       <c r="O73" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
@@ -3135,7 +3617,14 @@
         <v>0.022222222222222223</v>
       </c>
       <c r="J74" t="n" s="10">
-        <v>57.0</v>
+        <v>57.5</v>
+      </c>
+      <c r="K74" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L74"/>
+      <c r="M74" t="n" s="12">
+        <v>0.9583333333333334</v>
       </c>
       <c r="O74" t="n" s="12">
         <v>0.9361111111111111</v>
@@ -3173,7 +3662,14 @@
         <v>0.04861111111111111</v>
       </c>
       <c r="J75" t="n" s="10">
-        <v>12.0</v>
+        <v>12.5</v>
+      </c>
+      <c r="K75" t="n" s="12">
+        <v>0.3090277777777778</v>
+      </c>
+      <c r="L75"/>
+      <c r="M75" t="n" s="12">
+        <v>0.9604166666666667</v>
       </c>
       <c r="O75" t="n" s="12">
         <v>0.8854166666666666</v>
@@ -3211,7 +3707,14 @@
         <v>0.0625</v>
       </c>
       <c r="J76" t="n" s="10">
-        <v>8.0</v>
+        <v>8.5</v>
+      </c>
+      <c r="K76" t="n" s="12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L76"/>
+      <c r="M76" t="n" s="12">
+        <v>0.9055555555555556</v>
       </c>
       <c r="O76" t="n" s="12">
         <v>0.8118055555555556</v>
@@ -3251,6 +3754,13 @@
       <c r="J77" t="n" s="10">
         <v>13.0</v>
       </c>
+      <c r="K77" t="n" s="12">
+        <v>0.3020833333333333</v>
+      </c>
+      <c r="L77"/>
+      <c r="M77" t="n" s="12">
+        <v>0.9270833333333334</v>
+      </c>
       <c r="O77" t="n" s="12">
         <v>0.84375</v>
       </c>
@@ -3287,7 +3797,14 @@
         <v>0.075</v>
       </c>
       <c r="J78" t="n" s="10">
-        <v>32.0</v>
+        <v>32.5</v>
+      </c>
+      <c r="K78" t="n" s="12">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="L78"/>
+      <c r="M78" t="n" s="12">
+        <v>0.9840277777777777</v>
       </c>
       <c r="O78" t="n" s="12">
         <v>0.9041666666666667</v>
@@ -3327,6 +3844,13 @@
       <c r="J79" t="n" s="10">
         <v>52.0</v>
       </c>
+      <c r="K79" t="n" s="12">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="L79"/>
+      <c r="M79" t="n" s="12">
+        <v>0.9840277777777777</v>
+      </c>
       <c r="O79" t="n" s="12">
         <v>0.8951388888888889</v>
       </c>
@@ -3365,6 +3889,13 @@
       <c r="J80" t="n" s="10">
         <v>43.0</v>
       </c>
+      <c r="K80" t="n" s="12">
+        <v>0.29583333333333334</v>
+      </c>
+      <c r="L80"/>
+      <c r="M80" t="n" s="12">
+        <v>0.98125</v>
+      </c>
       <c r="O80" t="n" s="12">
         <v>0.9083333333333333</v>
       </c>
@@ -3403,6 +3934,13 @@
       <c r="J81" t="n" s="10">
         <v>71.0</v>
       </c>
+      <c r="K81" t="n" s="12">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="L81"/>
+      <c r="M81" t="n" s="12">
+        <v>0.9805555555555555</v>
+      </c>
       <c r="O81" t="n" s="12">
         <v>0.9111111111111111</v>
       </c>
@@ -3439,7 +3977,14 @@
         <v>0.04583333333333333</v>
       </c>
       <c r="J82" t="n" s="10">
-        <v>26.0</v>
+        <v>26.5</v>
+      </c>
+      <c r="K82" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L82"/>
+      <c r="M82" t="n" s="12">
+        <v>0.9583333333333334</v>
       </c>
       <c r="O82" t="n" s="12">
         <v>0.9090277777777778</v>
@@ -3479,6 +4024,13 @@
       <c r="J83" t="n" s="10">
         <v>58.0</v>
       </c>
+      <c r="K83" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L83"/>
+      <c r="M83" t="n" s="12">
+        <v>0.9729166666666667</v>
+      </c>
       <c r="O83" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
@@ -3517,6 +4069,13 @@
       <c r="J84" t="n" s="10">
         <v>33.0</v>
       </c>
+      <c r="K84" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L84"/>
+      <c r="M84" t="n" s="12">
+        <v>0.9666666666666667</v>
+      </c>
       <c r="O84" t="n" s="12">
         <v>0.9020833333333333</v>
       </c>
@@ -3553,7 +4112,14 @@
         <v>0.0625</v>
       </c>
       <c r="J85" t="n" s="10">
-        <v>49.0</v>
+        <v>49.5</v>
+      </c>
+      <c r="K85" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L85"/>
+      <c r="M85" t="n" s="12">
+        <v>0.9791666666666666</v>
       </c>
       <c r="O85" t="n" s="12">
         <v>0.9166666666666666</v>
@@ -3591,7 +4157,14 @@
         <v>0.04722222222222222</v>
       </c>
       <c r="J86" t="n" s="10">
-        <v>51.0</v>
+        <v>51.5</v>
+      </c>
+      <c r="K86" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L86"/>
+      <c r="M86" t="n" s="12">
+        <v>0.9645833333333333</v>
       </c>
       <c r="O86" t="n" s="12">
         <v>0.9173611111111111</v>
@@ -3629,7 +4202,14 @@
         <v>0.09930555555555555</v>
       </c>
       <c r="J87" t="n" s="10">
-        <v>40.0</v>
+        <v>40.5</v>
+      </c>
+      <c r="K87" t="n" s="12">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="L87"/>
+      <c r="M87" t="n" s="12">
+        <v>0.9958333333333333</v>
       </c>
       <c r="O87" t="n" s="12">
         <v>0.8965277777777778</v>
@@ -3667,7 +4247,14 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="J88" t="n" s="10">
-        <v>57.0</v>
+        <v>57.5</v>
+      </c>
+      <c r="K88" t="n" s="12">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="L88"/>
+      <c r="M88" t="n" s="12">
+        <v>0.9652777777777778</v>
       </c>
       <c r="O88" t="n" s="12">
         <v>0.9236111111111112</v>
@@ -3707,6 +4294,13 @@
       <c r="J89" t="n" s="10">
         <v>33.0</v>
       </c>
+      <c r="K89" t="n" s="12">
+        <v>0.2972222222222222</v>
+      </c>
+      <c r="L89"/>
+      <c r="M89" t="n" s="12">
+        <v>1.0006944444444446</v>
+      </c>
       <c r="O89" t="n" s="12">
         <v>0.9159722222222222</v>
       </c>
@@ -3745,6 +4339,13 @@
       <c r="J90" t="n" s="10">
         <v>34.0</v>
       </c>
+      <c r="K90" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L90"/>
+      <c r="M90" t="n" s="12">
+        <v>0.9958333333333333</v>
+      </c>
       <c r="O90" t="n" s="12">
         <v>0.9055555555555556</v>
       </c>
@@ -3781,7 +4382,14 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="J91" t="n" s="10">
-        <v>22.0</v>
+        <v>22.5</v>
+      </c>
+      <c r="K91" t="n" s="12">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="L91"/>
+      <c r="M91" t="n" s="12">
+        <v>0.9701388888888889</v>
       </c>
       <c r="O91" t="n" s="12">
         <v>0.9020833333333333</v>
@@ -3821,6 +4429,13 @@
       <c r="J92" t="n" s="10">
         <v>25.0</v>
       </c>
+      <c r="K92" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L92"/>
+      <c r="M92" t="n" s="12">
+        <v>0.9479166666666666</v>
+      </c>
       <c r="O92" t="n" s="12">
         <v>0.8993055555555556</v>
       </c>
@@ -3857,7 +4472,14 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="J93" t="n" s="10">
-        <v>22.0</v>
+        <v>22.5</v>
+      </c>
+      <c r="K93" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L93"/>
+      <c r="M93" t="n" s="12">
+        <v>0.9861111111111112</v>
       </c>
       <c r="O93" t="n" s="12">
         <v>0.8756944444444444</v>
@@ -3895,7 +4517,14 @@
         <v>0.0763888888888889</v>
       </c>
       <c r="J94" t="n" s="10">
-        <v>8.0</v>
+        <v>8.5</v>
+      </c>
+      <c r="K94" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L94"/>
+      <c r="M94" t="n" s="12">
+        <v>0.9826388888888888</v>
       </c>
       <c r="O94" t="n" s="12">
         <v>0.8680555555555556</v>
@@ -3935,6 +4564,13 @@
       <c r="J95" t="n" s="10">
         <v>36.0</v>
       </c>
+      <c r="K95" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L95"/>
+      <c r="M95" t="n" s="12">
+        <v>0.9861111111111112</v>
+      </c>
       <c r="O95" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
@@ -3971,7 +4607,14 @@
         <v>0.04861111111111111</v>
       </c>
       <c r="J96" t="n" s="10">
-        <v>12.0</v>
+        <v>12.5</v>
+      </c>
+      <c r="K96" t="n" s="12">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="L96"/>
+      <c r="M96" t="n" s="12">
+        <v>0.9666666666666667</v>
       </c>
       <c r="O96" t="n" s="12">
         <v>0.8958333333333334</v>
@@ -4011,6 +4654,13 @@
       <c r="J97" t="n" s="10">
         <v>30.0</v>
       </c>
+      <c r="K97" t="n" s="12">
+        <v>0.3125</v>
+      </c>
+      <c r="L97"/>
+      <c r="M97" t="n" s="12">
+        <v>0.9583333333333334</v>
+      </c>
       <c r="O97" t="n" s="12">
         <v>0.9166666666666666</v>
       </c>
@@ -4047,7 +4697,14 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="J98" t="n" s="10">
-        <v>21.0</v>
+        <v>21.5</v>
+      </c>
+      <c r="K98" t="n" s="12">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="L98"/>
+      <c r="M98" t="n" s="12">
+        <v>0.9631944444444445</v>
       </c>
       <c r="O98" t="n" s="12">
         <v>0.89375</v>
@@ -4087,6 +4744,13 @@
       <c r="J99" t="n" s="10">
         <v>56.0</v>
       </c>
+      <c r="K99" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L99"/>
+      <c r="M99" t="n" s="12">
+        <v>0.9756944444444444</v>
+      </c>
       <c r="O99" t="n" s="12">
         <v>0.925</v>
       </c>
@@ -4123,7 +4787,14 @@
         <v>0.04861111111111111</v>
       </c>
       <c r="J100" t="n" s="10">
-        <v>25.0</v>
+        <v>25.5</v>
+      </c>
+      <c r="K100" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L100"/>
+      <c r="M100" t="n" s="12">
+        <v>0.9479166666666666</v>
       </c>
       <c r="O100" t="n" s="12">
         <v>0.8993055555555556</v>
@@ -4163,6 +4834,13 @@
       <c r="J101" t="n" s="10">
         <v>36.0</v>
       </c>
+      <c r="K101" t="n" s="12">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="L101"/>
+      <c r="M101" t="n" s="12">
+        <v>0.9770833333333333</v>
+      </c>
       <c r="O101" t="n" s="12">
         <v>0.9131944444444444</v>
       </c>
@@ -4201,6 +4879,13 @@
       <c r="J102" t="n" s="10">
         <v>82.0</v>
       </c>
+      <c r="K102" t="n" s="12">
+        <v>0.2881944444444444</v>
+      </c>
+      <c r="L102"/>
+      <c r="M102" t="n" s="12">
+        <v>0.9826388888888888</v>
+      </c>
       <c r="O102" t="n" s="12">
         <v>0.9375</v>
       </c>
@@ -4237,7 +4922,14 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="J103" t="n" s="10">
-        <v>75.0</v>
+        <v>75.5</v>
+      </c>
+      <c r="K103" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L103"/>
+      <c r="M103" t="n" s="12">
+        <v>1.011111111111111</v>
       </c>
       <c r="O103" t="n" s="12">
         <v>0.9354166666666667</v>
@@ -4275,7 +4967,14 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="J104" t="n" s="10">
-        <v>59.0</v>
+        <v>59.5</v>
+      </c>
+      <c r="K104" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L104"/>
+      <c r="M104" t="n" s="12">
+        <v>0.9652777777777778</v>
       </c>
       <c r="O104" t="n" s="12">
         <v>0.9305555555555556</v>
@@ -4315,6 +5014,13 @@
       <c r="J105" t="n" s="10">
         <v>60.0</v>
       </c>
+      <c r="K105" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L105"/>
+      <c r="M105" t="n" s="12">
+        <v>0.9861111111111112</v>
+      </c>
       <c r="O105" t="n" s="12">
         <v>0.9305555555555556</v>
       </c>
@@ -4353,6 +5059,13 @@
       <c r="J106" t="n" s="10">
         <v>69.0</v>
       </c>
+      <c r="K106" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L106"/>
+      <c r="M106" t="n" s="12">
+        <v>0.9729166666666667</v>
+      </c>
       <c r="O106" t="n" s="12">
         <v>0.9256944444444445</v>
       </c>
@@ -4391,6 +5104,13 @@
       <c r="J107" t="n" s="10">
         <v>136.0</v>
       </c>
+      <c r="K107" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L107"/>
+      <c r="M107" t="n" s="12">
+        <v>0.9673611111111111</v>
+      </c>
       <c r="O107" t="n" s="12">
         <v>0.9430555555555555</v>
       </c>
@@ -4427,7 +5147,14 @@
         <v>0.09375</v>
       </c>
       <c r="J108" t="n" s="10">
-        <v>61.0</v>
+        <v>61.5</v>
+      </c>
+      <c r="K108" t="n" s="12">
+        <v>0.2881944444444444</v>
+      </c>
+      <c r="L108"/>
+      <c r="M108" t="n" s="12">
+        <v>0.9916666666666667</v>
       </c>
       <c r="O108" t="n" s="12">
         <v>0.9291666666666667</v>
@@ -4467,6 +5194,13 @@
       <c r="J109" t="n" s="10">
         <v>92.0</v>
       </c>
+      <c r="K109" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L109"/>
+      <c r="M109" t="n" s="12">
+        <v>0.9722222222222222</v>
+      </c>
       <c r="O109" t="n" s="12">
         <v>0.9347222222222222</v>
       </c>
@@ -4503,7 +5237,14 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="J110" t="n" s="10">
-        <v>89.0</v>
+        <v>89.5</v>
+      </c>
+      <c r="K110" t="n" s="12">
+        <v>0.2881944444444444</v>
+      </c>
+      <c r="L110"/>
+      <c r="M110" t="n" s="12">
+        <v>0.9930555555555556</v>
       </c>
       <c r="O110" t="n" s="12">
         <v>0.9305555555555556</v>
@@ -4543,6 +5284,13 @@
       <c r="J111" t="n" s="10">
         <v>71.0</v>
       </c>
+      <c r="K111" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L111"/>
+      <c r="M111" t="n" s="12">
+        <v>0.9868055555555556</v>
+      </c>
       <c r="O111" t="n" s="12">
         <v>0.9326388888888889</v>
       </c>
@@ -4581,6 +5329,13 @@
       <c r="J112" t="n" s="10">
         <v>64.0</v>
       </c>
+      <c r="K112" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L112"/>
+      <c r="M112" t="n" s="12">
+        <v>0.9777777777777777</v>
+      </c>
       <c r="O112" t="n" s="12">
         <v>0.9263888888888889</v>
       </c>
@@ -4619,6 +5374,13 @@
       <c r="J113" t="n" s="10">
         <v>71.0</v>
       </c>
+      <c r="K113" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L113"/>
+      <c r="M113" t="n" s="12">
+        <v>0.9784722222222222</v>
+      </c>
       <c r="O113" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
@@ -4657,6 +5419,13 @@
       <c r="J114" t="n" s="10">
         <v>68.0</v>
       </c>
+      <c r="K114" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L114"/>
+      <c r="M114" t="n" s="12">
+        <v>0.9722222222222222</v>
+      </c>
       <c r="O114" t="n" s="12">
         <v>0.9333333333333333</v>
       </c>
@@ -4694,6 +5463,13 @@
       </c>
       <c r="J115" t="n" s="10">
         <v>84.0</v>
+      </c>
+      <c r="K115" t="n" s="12">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="L115"/>
+      <c r="M115" t="n" s="12">
+        <v>0.9701388888888889</v>
       </c>
       <c r="O115" t="n" s="12">
         <v>0.9298611111111111</v>
